--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_18.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>648051.5842153727</v>
+        <v>653331.1429673196</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13167287.16146241</v>
+        <v>11943472.88418848</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3809475.954677904</v>
+        <v>2610015.581521716</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7223875.93299033</v>
+        <v>7736522.819212194</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>221.8096798885891</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>173.2931128199244</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -820,16 +822,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,16 +867,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>181.2635869532369</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>155.1469410361728</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>65.21304850673893</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -908,13 +910,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,16 +949,16 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>326.3292633887582</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>407.6027988439302</v>
@@ -1060,19 +1062,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>104.9037564455519</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,13 +1113,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>109.0591506971457</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1130,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>418.4197285142333</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>201.3764067796267</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>102.1026425880268</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>4.378995526348037</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -1379,16 +1381,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>298.3926489901317</v>
+        <v>199.5393369165927</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
@@ -1436,7 +1438,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1525,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>4.378995526348037</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
@@ -1579,16 +1581,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>218.7757544134943</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>21.48291194822631</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>175.0624134762488</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>51.585437404294</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>4.378995526348037</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1856,13 +1858,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>276.2660466995658</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -2002,19 +2004,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>43.10482199277159</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
@@ -2050,25 +2052,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>146.3034971231916</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
         <v>218.7163152458132</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
@@ -2248,7 +2250,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -2287,25 +2289,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>115.1055716303381</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>4.079649519670424</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2482,7 +2484,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>104.9037564455521</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2539,10 +2541,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>189.5733066869315</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2731,7 +2733,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>84.452814744562</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2959,10 +2961,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>12.82988994717986</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>11.12043047005107</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3190,13 +3192,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>51.58543740429417</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486159</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>120.642977804837</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>218.7757544134943</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3557,7 +3559,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
-        <v>255.771360309553</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
@@ -3658,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>58.31517967031836</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>124.4294523839912</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3755,10 +3757,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3803,10 +3805,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>406.1378129238821</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3904,13 +3906,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>104.9037564455521</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>123.9086344760398</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -3989,10 +3991,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4034,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>234.0872394605567</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>276.2660466995658</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4138,16 +4140,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>123.9086344760402</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>484.1565814076984</v>
+        <v>1805.062888170846</v>
       </c>
       <c r="C2" t="n">
-        <v>57.25585142099849</v>
+        <v>1805.062888170846</v>
       </c>
       <c r="D2" t="n">
-        <v>57.25585142099849</v>
+        <v>1381.770267355847</v>
       </c>
       <c r="E2" t="n">
-        <v>57.25585142099849</v>
+        <v>1206.726719052893</v>
       </c>
       <c r="F2" t="n">
-        <v>57.25585142099849</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G2" t="n">
-        <v>57.25585142099849</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H2" t="n">
-        <v>57.25585142099849</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I2" t="n">
-        <v>57.25585142099849</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>57.25585142099849</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K2" t="n">
-        <v>619.8746343403814</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L2" t="n">
-        <v>1328.415795675238</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="M2" t="n">
-        <v>2036.956957010094</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="N2" t="n">
-        <v>2036.956957010094</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="O2" t="n">
-        <v>2036.956957010094</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="P2" t="n">
-        <v>2745.236236168022</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q2" t="n">
-        <v>2745.236236168022</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R2" t="n">
-        <v>2862.792571049924</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2758.425276923065</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>2537.499705967698</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U2" t="n">
-        <v>2279.14479656411</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V2" t="n">
-        <v>1921.655381690359</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W2" t="n">
-        <v>1525.264031990706</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X2" t="n">
-        <v>1113.544033158454</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Y2" t="n">
-        <v>708.206763113344</v>
+        <v>2224.911252462377</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>624.3793424524537</v>
+        <v>983.3471129133217</v>
       </c>
       <c r="C3" t="n">
-        <v>506.8734389699584</v>
+        <v>865.8412094308264</v>
       </c>
       <c r="D3" t="n">
-        <v>403.0334804852435</v>
+        <v>762.0012509461114</v>
       </c>
       <c r="E3" t="n">
-        <v>298.3315467581807</v>
+        <v>657.2993172190487</v>
       </c>
       <c r="F3" t="n">
-        <v>204.6857164410849</v>
+        <v>563.6534869019529</v>
       </c>
       <c r="G3" t="n">
-        <v>110.6319446586889</v>
+        <v>469.5997151195569</v>
       </c>
       <c r="H3" t="n">
-        <v>57.25585142099849</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="I3" t="n">
-        <v>64.70249438291033</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="J3" t="n">
-        <v>336.3999836625014</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="K3" t="n">
-        <v>926.884910230841</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="L3" t="n">
-        <v>926.884910230841</v>
+        <v>966.8891568663047</v>
       </c>
       <c r="M3" t="n">
-        <v>1635.426071565697</v>
+        <v>1210.100240615159</v>
       </c>
       <c r="N3" t="n">
-        <v>1783.924171916805</v>
+        <v>1760.765775599597</v>
       </c>
       <c r="O3" t="n">
-        <v>1783.924171916805</v>
+        <v>1760.765775599597</v>
       </c>
       <c r="P3" t="n">
-        <v>1783.924171916805</v>
+        <v>1760.765775599597</v>
       </c>
       <c r="Q3" t="n">
-        <v>1783.924171916805</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R3" t="n">
-        <v>1865.943482001508</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S3" t="n">
-        <v>1784.619234562763</v>
+        <v>2143.587005023631</v>
       </c>
       <c r="T3" t="n">
-        <v>1642.739298860441</v>
+        <v>2001.707069321309</v>
       </c>
       <c r="U3" t="n">
-        <v>1457.971102780078</v>
+        <v>1816.938873240946</v>
       </c>
       <c r="V3" t="n">
-        <v>1252.997963919344</v>
+        <v>1611.965734380212</v>
       </c>
       <c r="W3" t="n">
-        <v>1056.476586752561</v>
+        <v>1415.444357213429</v>
       </c>
       <c r="X3" t="n">
-        <v>892.999240519224</v>
+        <v>1251.967010980092</v>
       </c>
       <c r="Y3" t="n">
-        <v>753.3063518725164</v>
+        <v>1112.274122333384</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1358.679056536234</v>
+        <v>545.9957668907073</v>
       </c>
       <c r="C4" t="n">
-        <v>1186.70649341515</v>
+        <v>374.0232037696233</v>
       </c>
       <c r="D4" t="n">
-        <v>1186.70649341515</v>
+        <v>210.706430896394</v>
       </c>
       <c r="E4" t="n">
-        <v>1020.498287568003</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F4" t="n">
-        <v>848.6365133425638</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G4" t="n">
-        <v>682.379543636796</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H4" t="n">
-        <v>682.379543636796</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I4" t="n">
-        <v>682.379543636796</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>739.870871860954</v>
+        <v>101.9895532734058</v>
       </c>
       <c r="K4" t="n">
-        <v>966.3984730667912</v>
+        <v>328.5171544792431</v>
       </c>
       <c r="L4" t="n">
-        <v>1321.087794361212</v>
+        <v>683.2064757736639</v>
       </c>
       <c r="M4" t="n">
-        <v>1712.273589331463</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
-        <v>2089.765100207499</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>2445.193228887262</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P4" t="n">
-        <v>2735.792440809163</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q4" t="n">
-        <v>2862.792571049924</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2862.792571049924</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S4" t="n">
-        <v>2692.657523569059</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T4" t="n">
-        <v>2449.318175794959</v>
+        <v>2041.81672018638</v>
       </c>
       <c r="U4" t="n">
-        <v>2449.318175794959</v>
+        <v>1761.632271686684</v>
       </c>
       <c r="V4" t="n">
-        <v>2292.604093940239</v>
+        <v>1479.920804294713</v>
       </c>
       <c r="W4" t="n">
-        <v>2017.751690112752</v>
+        <v>1205.068400467226</v>
       </c>
       <c r="X4" t="n">
-        <v>1775.187793558558</v>
+        <v>962.5045039130309</v>
       </c>
       <c r="Y4" t="n">
-        <v>1548.8450252483</v>
+        <v>736.161735602773</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>355.1242299469637</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="C5" t="n">
-        <v>355.1242299469637</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="D5" t="n">
-        <v>355.1242299469637</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="E5" t="n">
-        <v>355.1242299469637</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="F5" t="n">
-        <v>355.1242299469637</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G5" t="n">
-        <v>355.1242299469637</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>57.25585142099849</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
-        <v>57.25585142099849</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>419.859310237894</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>1128.40047157275</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>1836.941632907607</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M5" t="n">
-        <v>2154.251409715068</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="N5" t="n">
-        <v>2862.792571049924</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O5" t="n">
-        <v>2862.792571049924</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P5" t="n">
-        <v>2862.792571049924</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q5" t="n">
-        <v>2862.792571049924</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
-        <v>2862.792571049924</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2758.425276923065</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2537.499705967698</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>2279.14479656411</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V5" t="n">
-        <v>1921.655381690359</v>
+        <v>1763.054543461766</v>
       </c>
       <c r="W5" t="n">
-        <v>1592.029863115856</v>
+        <v>1366.663193762113</v>
       </c>
       <c r="X5" t="n">
-        <v>1180.309864283603</v>
+        <v>954.9431949298605</v>
       </c>
       <c r="Y5" t="n">
-        <v>774.9725942384937</v>
+        <v>549.6059248847508</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>624.3793424524537</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>506.8734389699584</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>403.0334804852435</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>298.3315467581807</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>204.6857164410849</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>110.6319446586889</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>57.25585142099849</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>64.70249438291033</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>336.3999836625014</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>336.3999836625014</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="L6" t="n">
-        <v>1044.941144997358</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="M6" t="n">
-        <v>1044.941144997358</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="N6" t="n">
-        <v>1157.402320666652</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O6" t="n">
-        <v>1865.943482001508</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P6" t="n">
-        <v>1865.943482001508</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
-        <v>1865.943482001508</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>1865.943482001508</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1784.619234562763</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1642.739298860441</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1457.971102780078</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1252.997963919344</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1056.476586752561</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>892.999240519224</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>753.3063518725164</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1140.436973945235</v>
+        <v>485.7509513926031</v>
       </c>
       <c r="C7" t="n">
-        <v>968.4644108241513</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="D7" t="n">
-        <v>805.147637950922</v>
+        <v>150.4616153982898</v>
       </c>
       <c r="E7" t="n">
-        <v>638.9394321037755</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F7" t="n">
-        <v>467.077657878336</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G7" t="n">
-        <v>300.8206881725681</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H7" t="n">
-        <v>157.0244196807225</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
-        <v>57.25585142099849</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>114.7471796451565</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>341.2747808509937</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>695.9641021454145</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1087.149897115665</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1464.641407991701</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1820.069536671464</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2110.668748593365</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2237.668878834127</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2190.6302655213</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2190.6302655213</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T7" t="n">
-        <v>1947.2909177472</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U7" t="n">
-        <v>1667.106469247504</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="V7" t="n">
-        <v>1667.106469247504</v>
+        <v>1419.675988796609</v>
       </c>
       <c r="W7" t="n">
-        <v>1667.106469247504</v>
+        <v>1144.823584969122</v>
       </c>
       <c r="X7" t="n">
-        <v>1556.945710967559</v>
+        <v>902.2596884149267</v>
       </c>
       <c r="Y7" t="n">
-        <v>1330.602942657301</v>
+        <v>675.9169201046687</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>910.1335212598408</v>
+        <v>1786.02567807839</v>
       </c>
       <c r="C8" t="n">
-        <v>483.2327912731409</v>
+        <v>1359.12494809169</v>
       </c>
       <c r="D8" t="n">
-        <v>483.2327912731409</v>
+        <v>935.83232727669</v>
       </c>
       <c r="E8" t="n">
-        <v>57.25585142099849</v>
+        <v>509.8553874245475</v>
       </c>
       <c r="F8" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="G8" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="H8" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="I8" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="J8" t="n">
-        <v>419.859310237894</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="K8" t="n">
-        <v>419.859310237894</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="L8" t="n">
-        <v>419.859310237894</v>
+        <v>1016.834244625407</v>
       </c>
       <c r="M8" t="n">
-        <v>1128.40047157275</v>
+        <v>2021.120346044465</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.941632907607</v>
+        <v>2997.371404531166</v>
       </c>
       <c r="O8" t="n">
-        <v>2545.482794242463</v>
+        <v>3842.516054681978</v>
       </c>
       <c r="P8" t="n">
-        <v>2745.236236168022</v>
+        <v>3904.374370802316</v>
       </c>
       <c r="Q8" t="n">
-        <v>2745.236236168022</v>
+        <v>4360.459850306499</v>
       </c>
       <c r="R8" t="n">
-        <v>2862.792571049924</v>
+        <v>4360.459850306499</v>
       </c>
       <c r="S8" t="n">
-        <v>2758.425276923065</v>
+        <v>4256.092556179639</v>
       </c>
       <c r="T8" t="n">
-        <v>2537.499705967698</v>
+        <v>4035.166985224273</v>
       </c>
       <c r="U8" t="n">
-        <v>2279.14479656411</v>
+        <v>3776.812075820685</v>
       </c>
       <c r="V8" t="n">
-        <v>1921.655381690359</v>
+        <v>3419.322660946935</v>
       </c>
       <c r="W8" t="n">
-        <v>1525.264031990706</v>
+        <v>3022.931311247282</v>
       </c>
       <c r="X8" t="n">
-        <v>1113.544033158454</v>
+        <v>2611.211312415029</v>
       </c>
       <c r="Y8" t="n">
-        <v>910.1335212598408</v>
+        <v>2205.87404236992</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>624.3793424524537</v>
+        <v>654.3326880375852</v>
       </c>
       <c r="C9" t="n">
-        <v>506.8734389699584</v>
+        <v>536.8267845550899</v>
       </c>
       <c r="D9" t="n">
-        <v>403.0334804852435</v>
+        <v>432.986826070375</v>
       </c>
       <c r="E9" t="n">
-        <v>298.3315467581807</v>
+        <v>328.2848923433122</v>
       </c>
       <c r="F9" t="n">
-        <v>204.6857164410849</v>
+        <v>234.6390620262164</v>
       </c>
       <c r="G9" t="n">
-        <v>110.6319446586889</v>
+        <v>140.5852902438204</v>
       </c>
       <c r="H9" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="I9" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="J9" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="K9" t="n">
-        <v>57.25585142099849</v>
+        <v>677.6941235744696</v>
       </c>
       <c r="L9" t="n">
-        <v>765.7970127558548</v>
+        <v>1179.699110548142</v>
       </c>
       <c r="M9" t="n">
-        <v>765.7970127558548</v>
+        <v>1179.699110548142</v>
       </c>
       <c r="N9" t="n">
-        <v>1474.338174090711</v>
+        <v>1179.699110548142</v>
       </c>
       <c r="O9" t="n">
-        <v>1865.943482001508</v>
+        <v>1179.699110548142</v>
       </c>
       <c r="P9" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="Q9" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="R9" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="S9" t="n">
-        <v>1784.619234562763</v>
+        <v>1814.572580147894</v>
       </c>
       <c r="T9" t="n">
-        <v>1642.739298860441</v>
+        <v>1672.692644445573</v>
       </c>
       <c r="U9" t="n">
-        <v>1457.971102780078</v>
+        <v>1487.924448365209</v>
       </c>
       <c r="V9" t="n">
-        <v>1252.997963919344</v>
+        <v>1282.951309504475</v>
       </c>
       <c r="W9" t="n">
-        <v>1056.476586752561</v>
+        <v>1086.429932337693</v>
       </c>
       <c r="X9" t="n">
-        <v>892.999240519224</v>
+        <v>922.9525861043555</v>
       </c>
       <c r="Y9" t="n">
-        <v>753.3063518725164</v>
+        <v>783.2596974576479</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>471.5008856827279</v>
+        <v>528.4619233494857</v>
       </c>
       <c r="C10" t="n">
-        <v>471.5008856827279</v>
+        <v>425.3279409373374</v>
       </c>
       <c r="D10" t="n">
-        <v>471.5008856827279</v>
+        <v>425.3279409373374</v>
       </c>
       <c r="E10" t="n">
-        <v>471.5008856827279</v>
+        <v>425.3279409373374</v>
       </c>
       <c r="F10" t="n">
-        <v>467.077657878336</v>
+        <v>253.4661667118978</v>
       </c>
       <c r="G10" t="n">
-        <v>300.8206881725681</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="H10" t="n">
-        <v>157.0244196807225</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="I10" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="J10" t="n">
-        <v>114.7471796451565</v>
+        <v>144.700525230288</v>
       </c>
       <c r="K10" t="n">
-        <v>341.2747808509937</v>
+        <v>371.2281264361252</v>
       </c>
       <c r="L10" t="n">
-        <v>695.9641021454145</v>
+        <v>725.917447730546</v>
       </c>
       <c r="M10" t="n">
-        <v>1087.149897115665</v>
+        <v>1117.103242700797</v>
       </c>
       <c r="N10" t="n">
-        <v>1464.641407991701</v>
+        <v>1494.594753576833</v>
       </c>
       <c r="O10" t="n">
-        <v>1820.069536671464</v>
+        <v>1850.022882256595</v>
       </c>
       <c r="P10" t="n">
-        <v>2110.668748593365</v>
+        <v>2140.622094178496</v>
       </c>
       <c r="Q10" t="n">
-        <v>2237.668878834127</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="R10" t="n">
-        <v>2190.6302655213</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="S10" t="n">
-        <v>2020.495218040435</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="T10" t="n">
-        <v>1777.155870266335</v>
+        <v>2024.282876645158</v>
       </c>
       <c r="U10" t="n">
-        <v>1496.971421766639</v>
+        <v>1744.098428145462</v>
       </c>
       <c r="V10" t="n">
-        <v>1215.259954374668</v>
+        <v>1462.386960753491</v>
       </c>
       <c r="W10" t="n">
-        <v>940.4075505471808</v>
+        <v>1187.534556926004</v>
       </c>
       <c r="X10" t="n">
-        <v>697.8436539929859</v>
+        <v>944.9706603718092</v>
       </c>
       <c r="Y10" t="n">
-        <v>471.5008856827279</v>
+        <v>718.6278920615513</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1333.426142074841</v>
+        <v>2525.607981663617</v>
       </c>
       <c r="C11" t="n">
-        <v>906.5254120881407</v>
+        <v>2098.707251676917</v>
       </c>
       <c r="D11" t="n">
-        <v>483.2327912731409</v>
+        <v>1675.414630861917</v>
       </c>
       <c r="E11" t="n">
-        <v>57.25585142099849</v>
+        <v>1249.437691009775</v>
       </c>
       <c r="F11" t="n">
-        <v>57.25585142099849</v>
+        <v>824.3135091991753</v>
       </c>
       <c r="G11" t="n">
-        <v>57.25585142099849</v>
+        <v>419.9744467886239</v>
       </c>
       <c r="H11" t="n">
-        <v>57.25585142099849</v>
+        <v>122.1060682626588</v>
       </c>
       <c r="I11" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="J11" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="K11" t="n">
-        <v>57.25585142099849</v>
+        <v>802.7175049816291</v>
       </c>
       <c r="L11" t="n">
-        <v>765.7970127558548</v>
+        <v>802.7175049816291</v>
       </c>
       <c r="M11" t="n">
-        <v>1445.710248380212</v>
+        <v>1807.003606400687</v>
       </c>
       <c r="N11" t="n">
-        <v>2154.251409715068</v>
+        <v>2783.254664887388</v>
       </c>
       <c r="O11" t="n">
-        <v>2862.792571049924</v>
+        <v>3628.3993150382</v>
       </c>
       <c r="P11" t="n">
-        <v>2862.792571049924</v>
+        <v>4336.678594196128</v>
       </c>
       <c r="Q11" t="n">
-        <v>2862.792571049924</v>
+        <v>4360.459850306499</v>
       </c>
       <c r="R11" t="n">
-        <v>2862.792571049924</v>
+        <v>4360.459850306499</v>
       </c>
       <c r="S11" t="n">
-        <v>2862.792571049924</v>
+        <v>4360.459850306499</v>
       </c>
       <c r="T11" t="n">
-        <v>2862.792571049924</v>
+        <v>4360.459850306499</v>
       </c>
       <c r="U11" t="n">
-        <v>2862.792571049924</v>
+        <v>4360.459850306499</v>
       </c>
       <c r="V11" t="n">
-        <v>2561.385854898276</v>
+        <v>4158.904964532163</v>
       </c>
       <c r="W11" t="n">
-        <v>2164.994505198623</v>
+        <v>3762.51361483251</v>
       </c>
       <c r="X11" t="n">
-        <v>1753.274506366371</v>
+        <v>3350.793616000257</v>
       </c>
       <c r="Y11" t="n">
-        <v>1753.274506366371</v>
+        <v>2945.456345955147</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>624.3793424524537</v>
+        <v>654.3326880375852</v>
       </c>
       <c r="C12" t="n">
-        <v>506.8734389699584</v>
+        <v>536.8267845550899</v>
       </c>
       <c r="D12" t="n">
-        <v>403.0334804852435</v>
+        <v>432.986826070375</v>
       </c>
       <c r="E12" t="n">
-        <v>298.3315467581807</v>
+        <v>328.2848923433122</v>
       </c>
       <c r="F12" t="n">
-        <v>204.6857164410849</v>
+        <v>234.6390620262164</v>
       </c>
       <c r="G12" t="n">
-        <v>110.6319446586889</v>
+        <v>140.5852902438204</v>
       </c>
       <c r="H12" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="I12" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="J12" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="K12" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="L12" t="n">
-        <v>57.25585142099849</v>
+        <v>924.0080050890361</v>
       </c>
       <c r="M12" t="n">
-        <v>765.7970127558548</v>
+        <v>924.0080050890361</v>
       </c>
       <c r="N12" t="n">
-        <v>1157.402320666652</v>
+        <v>924.0080050890361</v>
       </c>
       <c r="O12" t="n">
-        <v>1865.943482001508</v>
+        <v>1179.699110548142</v>
       </c>
       <c r="P12" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="Q12" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="R12" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="S12" t="n">
-        <v>1784.619234562763</v>
+        <v>1814.572580147894</v>
       </c>
       <c r="T12" t="n">
-        <v>1642.739298860441</v>
+        <v>1672.692644445573</v>
       </c>
       <c r="U12" t="n">
-        <v>1457.971102780078</v>
+        <v>1487.924448365209</v>
       </c>
       <c r="V12" t="n">
-        <v>1252.997963919344</v>
+        <v>1282.951309504475</v>
       </c>
       <c r="W12" t="n">
-        <v>1056.476586752561</v>
+        <v>1086.429932337693</v>
       </c>
       <c r="X12" t="n">
-        <v>892.999240519224</v>
+        <v>922.9525861043555</v>
       </c>
       <c r="Y12" t="n">
-        <v>753.3063518725164</v>
+        <v>783.2596974576479</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>471.5008856827279</v>
+        <v>1170.390319530367</v>
       </c>
       <c r="C13" t="n">
-        <v>471.5008856827279</v>
+        <v>998.4177564092828</v>
       </c>
       <c r="D13" t="n">
-        <v>471.5008856827279</v>
+        <v>835.1009835360535</v>
       </c>
       <c r="E13" t="n">
-        <v>471.5008856827279</v>
+        <v>668.892777688907</v>
       </c>
       <c r="F13" t="n">
-        <v>467.077657878336</v>
+        <v>497.0310034634675</v>
       </c>
       <c r="G13" t="n">
-        <v>300.8206881725681</v>
+        <v>330.7740337576996</v>
       </c>
       <c r="H13" t="n">
-        <v>157.0244196807225</v>
+        <v>186.977765265854</v>
       </c>
       <c r="I13" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="J13" t="n">
-        <v>114.7471796451565</v>
+        <v>144.700525230288</v>
       </c>
       <c r="K13" t="n">
-        <v>341.2747808509937</v>
+        <v>371.2281264361252</v>
       </c>
       <c r="L13" t="n">
-        <v>695.9641021454145</v>
+        <v>725.917447730546</v>
       </c>
       <c r="M13" t="n">
-        <v>1087.149897115665</v>
+        <v>1117.103242700797</v>
       </c>
       <c r="N13" t="n">
-        <v>1464.641407991701</v>
+        <v>1494.594753576833</v>
       </c>
       <c r="O13" t="n">
-        <v>1820.069536671464</v>
+        <v>1850.022882256595</v>
       </c>
       <c r="P13" t="n">
-        <v>2110.668748593365</v>
+        <v>2140.622094178496</v>
       </c>
       <c r="Q13" t="n">
-        <v>2237.668878834127</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="R13" t="n">
-        <v>2190.6302655213</v>
+        <v>2220.583611106431</v>
       </c>
       <c r="S13" t="n">
-        <v>2020.495218040435</v>
+        <v>2050.448563625566</v>
       </c>
       <c r="T13" t="n">
-        <v>1777.155870266335</v>
+        <v>2050.448563625566</v>
       </c>
       <c r="U13" t="n">
-        <v>1496.971421766639</v>
+        <v>2050.448563625566</v>
       </c>
       <c r="V13" t="n">
-        <v>1215.259954374668</v>
+        <v>2050.448563625566</v>
       </c>
       <c r="W13" t="n">
-        <v>940.4075505471808</v>
+        <v>1829.462953106885</v>
       </c>
       <c r="X13" t="n">
-        <v>697.8436539929859</v>
+        <v>1586.89905655269</v>
       </c>
       <c r="Y13" t="n">
-        <v>471.5008856827279</v>
+        <v>1360.556288242432</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2162.889386295992</v>
+        <v>2192.842731881123</v>
       </c>
       <c r="C14" t="n">
-        <v>1735.988656309292</v>
+        <v>1765.942001894423</v>
       </c>
       <c r="D14" t="n">
-        <v>1312.696035494292</v>
+        <v>1342.649381079424</v>
       </c>
       <c r="E14" t="n">
-        <v>886.7190956421497</v>
+        <v>916.6724412272812</v>
       </c>
       <c r="F14" t="n">
-        <v>461.5949138315499</v>
+        <v>491.5482594166814</v>
       </c>
       <c r="G14" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="H14" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="I14" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="J14" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="K14" t="n">
-        <v>57.25585142099849</v>
+        <v>487.5966577487487</v>
       </c>
       <c r="L14" t="n">
-        <v>765.7970127558548</v>
+        <v>1417.221705368025</v>
       </c>
       <c r="M14" t="n">
-        <v>1474.338174090711</v>
+        <v>2421.507806787084</v>
       </c>
       <c r="N14" t="n">
-        <v>2182.879335425568</v>
+        <v>3397.758865273785</v>
       </c>
       <c r="O14" t="n">
-        <v>2862.792571049924</v>
+        <v>4242.903515424597</v>
       </c>
       <c r="P14" t="n">
-        <v>2862.792571049924</v>
+        <v>4242.903515424597</v>
       </c>
       <c r="Q14" t="n">
-        <v>2862.792571049924</v>
+        <v>4242.903515424597</v>
       </c>
       <c r="R14" t="n">
-        <v>2862.792571049924</v>
+        <v>4360.459850306499</v>
       </c>
       <c r="S14" t="n">
-        <v>2841.09265999111</v>
+        <v>4360.459850306499</v>
       </c>
       <c r="T14" t="n">
-        <v>2841.09265999111</v>
+        <v>4360.459850306499</v>
       </c>
       <c r="U14" t="n">
-        <v>2582.737750587522</v>
+        <v>4183.629129623419</v>
       </c>
       <c r="V14" t="n">
-        <v>2582.737750587522</v>
+        <v>3826.139714749669</v>
       </c>
       <c r="W14" t="n">
-        <v>2582.737750587522</v>
+        <v>3429.748365050016</v>
       </c>
       <c r="X14" t="n">
-        <v>2582.737750587522</v>
+        <v>3018.028366217763</v>
       </c>
       <c r="Y14" t="n">
-        <v>2582.737750587522</v>
+        <v>2612.691096172653</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>624.3793424524537</v>
+        <v>654.3326880375852</v>
       </c>
       <c r="C15" t="n">
-        <v>506.8734389699584</v>
+        <v>536.8267845550899</v>
       </c>
       <c r="D15" t="n">
-        <v>403.0334804852435</v>
+        <v>432.986826070375</v>
       </c>
       <c r="E15" t="n">
-        <v>298.3315467581807</v>
+        <v>328.2848923433122</v>
       </c>
       <c r="F15" t="n">
-        <v>204.6857164410849</v>
+        <v>234.6390620262164</v>
       </c>
       <c r="G15" t="n">
-        <v>110.6319446586889</v>
+        <v>140.5852902438204</v>
       </c>
       <c r="H15" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="I15" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="J15" t="n">
-        <v>328.9533407005896</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="K15" t="n">
-        <v>919.4382672689292</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="L15" t="n">
-        <v>919.4382672689292</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="M15" t="n">
-        <v>1075.383010581949</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="N15" t="n">
-        <v>1075.383010581949</v>
+        <v>1006.415549575168</v>
       </c>
       <c r="O15" t="n">
-        <v>1783.924171916805</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="P15" t="n">
-        <v>1783.924171916805</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="Q15" t="n">
-        <v>1783.924171916805</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="R15" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="S15" t="n">
-        <v>1784.619234562763</v>
+        <v>1814.572580147894</v>
       </c>
       <c r="T15" t="n">
-        <v>1642.739298860441</v>
+        <v>1672.692644445573</v>
       </c>
       <c r="U15" t="n">
-        <v>1457.971102780078</v>
+        <v>1487.924448365209</v>
       </c>
       <c r="V15" t="n">
-        <v>1252.997963919344</v>
+        <v>1282.951309504475</v>
       </c>
       <c r="W15" t="n">
-        <v>1056.476586752561</v>
+        <v>1086.429932337693</v>
       </c>
       <c r="X15" t="n">
-        <v>892.999240519224</v>
+        <v>922.9525861043555</v>
       </c>
       <c r="Y15" t="n">
-        <v>753.3063518725164</v>
+        <v>783.2596974576479</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>471.5008856827279</v>
+        <v>311.2882625557938</v>
       </c>
       <c r="C16" t="n">
-        <v>471.5008856827279</v>
+        <v>139.3156994347098</v>
       </c>
       <c r="D16" t="n">
-        <v>471.5008856827279</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="E16" t="n">
-        <v>471.5008856827279</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="F16" t="n">
-        <v>467.077657878336</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="G16" t="n">
-        <v>300.8206881725681</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="H16" t="n">
-        <v>157.0244196807225</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="I16" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="J16" t="n">
-        <v>114.7471796451565</v>
+        <v>144.700525230288</v>
       </c>
       <c r="K16" t="n">
-        <v>341.2747808509937</v>
+        <v>371.2281264361252</v>
       </c>
       <c r="L16" t="n">
-        <v>695.9641021454145</v>
+        <v>725.917447730546</v>
       </c>
       <c r="M16" t="n">
-        <v>1087.149897115665</v>
+        <v>1117.103242700797</v>
       </c>
       <c r="N16" t="n">
-        <v>1464.641407991701</v>
+        <v>1494.594753576833</v>
       </c>
       <c r="O16" t="n">
-        <v>1820.069536671464</v>
+        <v>1850.022882256595</v>
       </c>
       <c r="P16" t="n">
-        <v>2110.668748593365</v>
+        <v>2140.622094178496</v>
       </c>
       <c r="Q16" t="n">
-        <v>2237.668878834127</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="R16" t="n">
-        <v>2190.6302655213</v>
+        <v>2220.583611106431</v>
       </c>
       <c r="S16" t="n">
-        <v>2020.495218040435</v>
+        <v>2050.448563625566</v>
       </c>
       <c r="T16" t="n">
-        <v>1777.155870266335</v>
+        <v>1807.109215851466</v>
       </c>
       <c r="U16" t="n">
-        <v>1496.971421766639</v>
+        <v>1526.92476735177</v>
       </c>
       <c r="V16" t="n">
-        <v>1215.259954374668</v>
+        <v>1245.213299959799</v>
       </c>
       <c r="W16" t="n">
-        <v>940.4075505471808</v>
+        <v>970.3608961323123</v>
       </c>
       <c r="X16" t="n">
-        <v>697.8436539929859</v>
+        <v>727.7969995781174</v>
       </c>
       <c r="Y16" t="n">
-        <v>471.5008856827279</v>
+        <v>501.4542312678594</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1758.55032388544</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>1331.64959389874</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>908.3569730837407</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>482.3800332315983</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>57.25585142099849</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>57.25585142099849</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H17" t="n">
-        <v>57.25585142099849</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
-        <v>57.25585142099849</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>57.25585142099849</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
-        <v>57.25585142099849</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>737.1690870453554</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>1445.710248380212</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>2154.251409715068</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O17" t="n">
-        <v>2862.792571049924</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P17" t="n">
-        <v>2862.792571049924</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q17" t="n">
-        <v>2862.792571049924</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R17" t="n">
-        <v>2862.792571049924</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
-        <v>2862.792571049924</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>2862.792571049924</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
-        <v>2862.792571049924</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>2862.792571049924</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>2862.792571049924</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>2583.73595822208</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2178.398688176971</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>624.3793424524537</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C18" t="n">
-        <v>506.8734389699584</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D18" t="n">
-        <v>403.0334804852435</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E18" t="n">
-        <v>298.3315467581807</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F18" t="n">
-        <v>204.6857164410849</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>110.6319446586889</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H18" t="n">
-        <v>57.25585142099849</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>57.25585142099849</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>57.25585142099849</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>57.25585142099849</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>765.7970127558548</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>765.7970127558548</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N18" t="n">
-        <v>765.7970127558548</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
-        <v>765.7970127558548</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
-        <v>1401.798005138729</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
-        <v>1865.943482001508</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R18" t="n">
-        <v>1865.943482001508</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S18" t="n">
-        <v>1784.619234562763</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T18" t="n">
-        <v>1642.739298860441</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U18" t="n">
-        <v>1457.971102780078</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V18" t="n">
-        <v>1252.997963919344</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W18" t="n">
-        <v>1056.476586752561</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X18" t="n">
-        <v>892.999240519224</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y18" t="n">
-        <v>753.3063518725164</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>507.6776852809202</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C19" t="n">
-        <v>507.6776852809202</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D19" t="n">
-        <v>344.3609124076909</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E19" t="n">
-        <v>344.3609124076909</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F19" t="n">
-        <v>344.3609124076909</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G19" t="n">
-        <v>300.8206881725681</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H19" t="n">
-        <v>157.0244196807225</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
-        <v>57.25585142099849</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>114.7471796451565</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>341.2747808509937</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
-        <v>695.9641021454145</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M19" t="n">
-        <v>1087.149897115665</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N19" t="n">
-        <v>1464.641407991701</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>1820.069536671464</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>2110.668748593365</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>2237.668878834127</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2190.6302655213</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2020.495218040435</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T19" t="n">
-        <v>1777.155870266335</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U19" t="n">
-        <v>1496.971421766639</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="V19" t="n">
-        <v>1215.259954374668</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="W19" t="n">
-        <v>940.4075505471808</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X19" t="n">
-        <v>697.8436539929859</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y19" t="n">
-        <v>697.8436539929859</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="20">
@@ -5750,31 +5752,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L20" t="n">
-        <v>2011.818868109901</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N20" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S20" t="n">
         <v>5010.768376164567</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742372</v>
       </c>
       <c r="C21" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259877</v>
       </c>
       <c r="D21" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775162</v>
       </c>
       <c r="E21" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.5237350481</v>
       </c>
       <c r="F21" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731004</v>
       </c>
       <c r="G21" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948608</v>
       </c>
       <c r="H21" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>4025.820723818556</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R21" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S21" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852681</v>
       </c>
       <c r="T21" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.931487150359</v>
       </c>
       <c r="U21" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069996</v>
       </c>
       <c r="V21" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209263</v>
       </c>
       <c r="W21" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.66877504248</v>
       </c>
       <c r="X21" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809143</v>
       </c>
       <c r="Y21" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162435</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1013.622061704626</v>
+        <v>4017.903765402535</v>
       </c>
       <c r="C22" t="n">
-        <v>841.6494985835419</v>
+        <v>3845.931202281451</v>
       </c>
       <c r="D22" t="n">
-        <v>678.3327257103126</v>
+        <v>3682.614429408221</v>
       </c>
       <c r="E22" t="n">
-        <v>512.1245198631661</v>
+        <v>3516.406223561075</v>
       </c>
       <c r="F22" t="n">
-        <v>512.1245198631661</v>
+        <v>3344.544449335635</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>3178.287479629867</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>3034.491211138022</v>
       </c>
       <c r="I22" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L22" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M22" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N22" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O22" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P22" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q22" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>4951.828802806541</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>4951.828802806541</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>4951.828802806541</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359498</v>
+        <v>4951.828802806541</v>
       </c>
       <c r="W22" t="n">
-        <v>1256.185958258821</v>
+        <v>4676.976398979054</v>
       </c>
       <c r="X22" t="n">
-        <v>1013.622061704626</v>
+        <v>4434.412502424859</v>
       </c>
       <c r="Y22" t="n">
-        <v>1013.622061704626</v>
+        <v>4208.069734114601</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5975,13 +5977,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
@@ -6005,19 +6007,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C24" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D24" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E24" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F24" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G24" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>4025.820723818557</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S24" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T24" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U24" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V24" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W24" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X24" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y24" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3436.220184719758</v>
+        <v>437.5920494001418</v>
       </c>
       <c r="C25" t="n">
-        <v>3264.247621598674</v>
+        <v>265.6194862790578</v>
       </c>
       <c r="D25" t="n">
-        <v>3100.930848725445</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>4897.962009497735</v>
+        <v>2176.752350469914</v>
       </c>
       <c r="T25" t="n">
-        <v>4654.622661723635</v>
+        <v>1933.413002695814</v>
       </c>
       <c r="U25" t="n">
-        <v>4374.43821322394</v>
+        <v>1653.228554196118</v>
       </c>
       <c r="V25" t="n">
-        <v>4092.726745831969</v>
+        <v>1371.517086804147</v>
       </c>
       <c r="W25" t="n">
-        <v>3817.874342004482</v>
+        <v>1096.66468297666</v>
       </c>
       <c r="X25" t="n">
-        <v>3626.386153431824</v>
+        <v>854.1007864224655</v>
       </c>
       <c r="Y25" t="n">
-        <v>3626.386153431824</v>
+        <v>627.7580181122075</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6212,49 +6214,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>464.9061722227241</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L26" t="n">
-        <v>1007.532766690843</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905342</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6312,16 +6314,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N27" t="n">
-        <v>102.3027134058285</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O27" t="n">
-        <v>730.647150085061</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P27" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6358,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1185.483835930065</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="C28" t="n">
-        <v>1013.511272808982</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D28" t="n">
-        <v>850.1944999357522</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E28" t="n">
-        <v>683.9862940886057</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F28" t="n">
-        <v>512.1245198631661</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G28" t="n">
-        <v>345.8675501573982</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6409,25 +6411,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T28" t="n">
-        <v>2282.715740818957</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U28" t="n">
-        <v>2282.715740818957</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="V28" t="n">
-        <v>2119.408873334071</v>
+        <v>1587.529878172021</v>
       </c>
       <c r="W28" t="n">
-        <v>1844.556469506584</v>
+        <v>1587.529878172021</v>
       </c>
       <c r="X28" t="n">
-        <v>1601.992572952389</v>
+        <v>1502.224004692665</v>
       </c>
       <c r="Y28" t="n">
-        <v>1375.649804642131</v>
+        <v>1275.881236382407</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6449,49 +6451,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M29" t="n">
-        <v>2110.0395278175</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N29" t="n">
-        <v>3086.290586304201</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O29" t="n">
-        <v>3931.435236455013</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>4639.71451561294</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q29" t="n">
-        <v>5095.799995117123</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C30" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D30" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E30" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F30" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G30" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>3306.448039710919</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L30" t="n">
-        <v>3306.448039710919</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M30" t="n">
-        <v>4362.434577686964</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N30" t="n">
-        <v>5115.135670291427</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O30" t="n">
-        <v>5115.135670291427</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P30" t="n">
-        <v>5115.135670291427</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q30" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R30" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S30" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T30" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U30" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V30" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W30" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X30" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y30" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>616.7597400424195</v>
+        <v>3619.314716995754</v>
       </c>
       <c r="C31" t="n">
-        <v>444.7871769213355</v>
+        <v>3447.34215387467</v>
       </c>
       <c r="D31" t="n">
-        <v>281.4704040481062</v>
+        <v>3284.025381001441</v>
       </c>
       <c r="E31" t="n">
-        <v>115.2621982009597</v>
+        <v>3117.817175154294</v>
       </c>
       <c r="F31" t="n">
-        <v>102.3027134058285</v>
+        <v>2945.955400928854</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="I31" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L31" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M31" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N31" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O31" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P31" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q31" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R31" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S31" t="n">
-        <v>2112.580693338092</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="T31" t="n">
-        <v>2112.580693338092</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="U31" t="n">
-        <v>1832.396244838396</v>
+        <v>4834.951221791731</v>
       </c>
       <c r="V31" t="n">
-        <v>1550.684777446425</v>
+        <v>4553.239754399759</v>
       </c>
       <c r="W31" t="n">
-        <v>1275.832373618938</v>
+        <v>4278.387350572272</v>
       </c>
       <c r="X31" t="n">
-        <v>1033.268477064743</v>
+        <v>4035.823454018077</v>
       </c>
       <c r="Y31" t="n">
-        <v>806.9257087544852</v>
+        <v>3809.480685707819</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6686,49 +6688,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2720.098147267829</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N32" t="n">
-        <v>3696.34920575453</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O32" t="n">
-        <v>4541.493855905342</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P32" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742372</v>
       </c>
       <c r="C33" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259877</v>
       </c>
       <c r="D33" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775162</v>
       </c>
       <c r="E33" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.5237350481</v>
       </c>
       <c r="F33" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731004</v>
       </c>
       <c r="G33" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948608</v>
       </c>
       <c r="H33" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>3313.89468267283</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>3585.592171952421</v>
       </c>
       <c r="K33" t="n">
-        <v>692.7876399741681</v>
+        <v>4176.07709852076</v>
       </c>
       <c r="L33" t="n">
-        <v>821.6753975134684</v>
+        <v>4568.970883343944</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>4568.970883343944</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>4568.970883343944</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>4568.970883343944</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>4568.970883343944</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>5033.116360206724</v>
       </c>
       <c r="R33" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S33" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852681</v>
       </c>
       <c r="T33" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.931487150359</v>
       </c>
       <c r="U33" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069996</v>
       </c>
       <c r="V33" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209263</v>
       </c>
       <c r="W33" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.66877504248</v>
       </c>
       <c r="X33" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809143</v>
       </c>
       <c r="Y33" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162435</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>326.3817789554925</v>
+        <v>3278.556980224821</v>
       </c>
       <c r="C34" t="n">
-        <v>154.4092158344085</v>
+        <v>3106.584417103737</v>
       </c>
       <c r="D34" t="n">
-        <v>102.3027134058285</v>
+        <v>3106.584417103737</v>
       </c>
       <c r="E34" t="n">
-        <v>102.3027134058285</v>
+        <v>3106.584417103737</v>
       </c>
       <c r="F34" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="G34" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="H34" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="I34" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L34" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M34" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N34" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O34" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P34" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q34" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>5017.717281294594</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>4774.377933520494</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>4494.193485020798</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359498</v>
+        <v>4212.482017628827</v>
       </c>
       <c r="W34" t="n">
-        <v>985.454412532011</v>
+        <v>3937.62961380134</v>
       </c>
       <c r="X34" t="n">
-        <v>742.8905159778161</v>
+        <v>3695.065717247145</v>
       </c>
       <c r="Y34" t="n">
-        <v>516.5477476675582</v>
+        <v>3468.722948936887</v>
       </c>
     </row>
     <row r="35">
@@ -6935,52 +6937,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>195.4640539534684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>195.4640539534684</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>1125.089101572745</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>2129.375202991803</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="N35" t="n">
-        <v>3105.626261478504</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O35" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P35" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4017.903765402536</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C37" t="n">
-        <v>3845.931202281452</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D37" t="n">
-        <v>3682.614429408222</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E37" t="n">
-        <v>3516.406223561076</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F37" t="n">
-        <v>3344.544449335636</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G37" t="n">
-        <v>3178.287479629868</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H37" t="n">
-        <v>3034.491211138023</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M37" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N37" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O37" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>5115.135670291427</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>4945.000622810562</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>4701.661275036462</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U37" t="n">
-        <v>4421.476826536767</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="V37" t="n">
-        <v>4139.765359144795</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="W37" t="n">
-        <v>4139.765359144795</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X37" t="n">
-        <v>4139.765359144795</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y37" t="n">
-        <v>4139.765359144795</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7162,7 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G38" t="n">
         <v>435.0679631883225</v>
@@ -7172,37 +7174,37 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K38" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1007.532766690843</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.818868109901</v>
+        <v>2129.375202991802</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596602</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747414</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7260,16 +7262,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N39" t="n">
-        <v>102.3027134058285</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O39" t="n">
-        <v>730.647150085061</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P39" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.990343986338</v>
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1185.483835930065</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808982</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357522</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886057</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F40" t="n">
-        <v>512.1245198631661</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G40" t="n">
         <v>345.8675501573982</v>
@@ -7330,10 +7332,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7354,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T40" t="n">
-        <v>2282.715740818957</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U40" t="n">
-        <v>2002.531292319261</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V40" t="n">
-        <v>2002.531292319261</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W40" t="n">
-        <v>1727.678888491774</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X40" t="n">
-        <v>1601.992572952389</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y40" t="n">
-        <v>1375.649804642131</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063315</v>
+        <v>2192.842731881123</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076615</v>
+        <v>1765.942001894423</v>
       </c>
       <c r="D41" t="n">
-        <v>1690.508147261616</v>
+        <v>1342.649381079424</v>
       </c>
       <c r="E41" t="n">
-        <v>1264.531207409474</v>
+        <v>916.6724412272812</v>
       </c>
       <c r="F41" t="n">
-        <v>839.4070255988736</v>
+        <v>491.5482594166814</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883222</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="H41" t="n">
-        <v>137.1995846623568</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="I41" t="n">
-        <v>102.3027134058285</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="J41" t="n">
-        <v>102.3027134058285</v>
+        <v>449.8126558230255</v>
       </c>
       <c r="K41" t="n">
-        <v>817.8110213813276</v>
+        <v>1165.320963798525</v>
       </c>
       <c r="L41" t="n">
-        <v>1747.436069000604</v>
+        <v>2094.946011417801</v>
       </c>
       <c r="M41" t="n">
-        <v>2751.722170419663</v>
+        <v>3099.232112836859</v>
       </c>
       <c r="N41" t="n">
-        <v>3727.973228906364</v>
+        <v>4075.48317132356</v>
       </c>
       <c r="O41" t="n">
-        <v>4573.117879057176</v>
+        <v>4242.903515424597</v>
       </c>
       <c r="P41" t="n">
-        <v>5115.135670291427</v>
+        <v>4242.903515424597</v>
       </c>
       <c r="Q41" t="n">
-        <v>5115.135670291427</v>
+        <v>4242.903515424597</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291427</v>
+        <v>4360.459850306499</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164568</v>
+        <v>4256.092556179639</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.8428052092</v>
+        <v>4035.166985224273</v>
       </c>
       <c r="U41" t="n">
-        <v>4531.487895805612</v>
+        <v>3776.812075820685</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931861</v>
+        <v>3419.322660946935</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232208</v>
+        <v>3022.931311247282</v>
       </c>
       <c r="X41" t="n">
-        <v>3365.887132399955</v>
+        <v>2612.691096172653</v>
       </c>
       <c r="Y41" t="n">
-        <v>2960.549862354846</v>
+        <v>2612.691096172653</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>669.4262044372838</v>
+        <v>654.3326880375852</v>
       </c>
       <c r="C42" t="n">
-        <v>551.9203009547886</v>
+        <v>536.8267845550899</v>
       </c>
       <c r="D42" t="n">
-        <v>448.0803424700736</v>
+        <v>432.986826070375</v>
       </c>
       <c r="E42" t="n">
-        <v>343.3784087430108</v>
+        <v>328.2848923433122</v>
       </c>
       <c r="F42" t="n">
-        <v>249.7325784259149</v>
+        <v>234.6390620262164</v>
       </c>
       <c r="G42" t="n">
-        <v>155.678806643519</v>
+        <v>140.5852902438204</v>
       </c>
       <c r="H42" t="n">
-        <v>102.3027134058285</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="I42" t="n">
-        <v>102.3027134058285</v>
+        <v>94.65583996804182</v>
       </c>
       <c r="J42" t="n">
-        <v>102.3027134058285</v>
+        <v>366.3533292476329</v>
       </c>
       <c r="K42" t="n">
-        <v>102.3027134058285</v>
+        <v>956.8382558159725</v>
       </c>
       <c r="L42" t="n">
-        <v>102.3027134058285</v>
+        <v>956.8382558159725</v>
       </c>
       <c r="M42" t="n">
-        <v>821.6753975134684</v>
+        <v>956.8382558159725</v>
       </c>
       <c r="N42" t="n">
-        <v>1910.990343986338</v>
+        <v>956.8382558159725</v>
       </c>
       <c r="O42" t="n">
-        <v>1910.990343986338</v>
+        <v>956.8382558159725</v>
       </c>
       <c r="P42" t="n">
-        <v>1910.990343986338</v>
+        <v>1431.75135072386</v>
       </c>
       <c r="Q42" t="n">
-        <v>1910.990343986338</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="R42" t="n">
-        <v>1910.990343986338</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="S42" t="n">
-        <v>1829.666096547593</v>
+        <v>1814.572580147894</v>
       </c>
       <c r="T42" t="n">
-        <v>1687.786160845271</v>
+        <v>1672.692644445573</v>
       </c>
       <c r="U42" t="n">
-        <v>1503.017964764908</v>
+        <v>1487.924448365209</v>
       </c>
       <c r="V42" t="n">
-        <v>1298.044825904174</v>
+        <v>1282.951309504475</v>
       </c>
       <c r="W42" t="n">
-        <v>1101.523448737391</v>
+        <v>1086.429932337693</v>
       </c>
       <c r="X42" t="n">
-        <v>938.0461025040541</v>
+        <v>922.9525861043555</v>
       </c>
       <c r="Y42" t="n">
-        <v>798.3532138573465</v>
+        <v>783.2596974576479</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>941.9189991784958</v>
+        <v>422.4985330004433</v>
       </c>
       <c r="C43" t="n">
-        <v>769.9464360574118</v>
+        <v>250.5259698793593</v>
       </c>
       <c r="D43" t="n">
-        <v>606.6296631841825</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="E43" t="n">
-        <v>440.421457337036</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="F43" t="n">
-        <v>268.5596831115964</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="G43" t="n">
-        <v>102.3027134058285</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="H43" t="n">
-        <v>102.3027134058285</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="I43" t="n">
-        <v>102.3027134058285</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="J43" t="n">
-        <v>159.7940416299866</v>
+        <v>144.700525230288</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3216428358238</v>
+        <v>371.2281264361252</v>
       </c>
       <c r="L43" t="n">
-        <v>741.0109641302445</v>
+        <v>725.917447730546</v>
       </c>
       <c r="M43" t="n">
-        <v>1132.196759100495</v>
+        <v>1117.103242700797</v>
       </c>
       <c r="N43" t="n">
-        <v>1509.688269976531</v>
+        <v>1494.594753576833</v>
       </c>
       <c r="O43" t="n">
-        <v>1865.116398656294</v>
+        <v>1850.022882256595</v>
       </c>
       <c r="P43" t="n">
-        <v>2155.715610578195</v>
+        <v>2140.622094178496</v>
       </c>
       <c r="Q43" t="n">
-        <v>2282.715740818957</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="R43" t="n">
-        <v>2282.715740818957</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="S43" t="n">
-        <v>2282.715740818957</v>
+        <v>2161.658834070216</v>
       </c>
       <c r="T43" t="n">
-        <v>2282.715740818957</v>
+        <v>1918.319486296116</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.555503974472</v>
+        <v>1638.13503779642</v>
       </c>
       <c r="V43" t="n">
-        <v>1875.844036582501</v>
+        <v>1356.423570404449</v>
       </c>
       <c r="W43" t="n">
-        <v>1600.991632755014</v>
+        <v>1081.571166576962</v>
       </c>
       <c r="X43" t="n">
-        <v>1358.427736200819</v>
+        <v>839.0072700227669</v>
       </c>
       <c r="Y43" t="n">
-        <v>1132.084967890562</v>
+        <v>612.6645017125089</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1758.55032388544</v>
+        <v>2490.711110407088</v>
       </c>
       <c r="C44" t="n">
-        <v>1331.64959389874</v>
+        <v>2063.810380420388</v>
       </c>
       <c r="D44" t="n">
-        <v>908.3569730837407</v>
+        <v>1640.517759605389</v>
       </c>
       <c r="E44" t="n">
-        <v>482.3800332315983</v>
+        <v>1214.540819753246</v>
       </c>
       <c r="F44" t="n">
-        <v>57.25585142099849</v>
+        <v>789.4166379426465</v>
       </c>
       <c r="G44" t="n">
-        <v>57.25585142099849</v>
+        <v>385.0775755320951</v>
       </c>
       <c r="H44" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="I44" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="J44" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="K44" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="L44" t="n">
-        <v>765.7970127558548</v>
+        <v>252.8569467059144</v>
       </c>
       <c r="M44" t="n">
-        <v>1474.338174090711</v>
+        <v>1257.143048124973</v>
       </c>
       <c r="N44" t="n">
-        <v>2182.879335425568</v>
+        <v>2233.394106611674</v>
       </c>
       <c r="O44" t="n">
-        <v>2862.792571049924</v>
+        <v>3078.538756762486</v>
       </c>
       <c r="P44" t="n">
-        <v>2862.792571049924</v>
+        <v>3786.818035920413</v>
       </c>
       <c r="Q44" t="n">
-        <v>2862.792571049924</v>
+        <v>4242.903515424597</v>
       </c>
       <c r="R44" t="n">
-        <v>2862.792571049924</v>
+        <v>4360.459850306499</v>
       </c>
       <c r="S44" t="n">
-        <v>2862.792571049924</v>
+        <v>4360.459850306499</v>
       </c>
       <c r="T44" t="n">
-        <v>2862.792571049924</v>
+        <v>4360.459850306499</v>
       </c>
       <c r="U44" t="n">
-        <v>2862.792571049924</v>
+        <v>4360.459850306499</v>
       </c>
       <c r="V44" t="n">
-        <v>2862.792571049924</v>
+        <v>4124.008093275634</v>
       </c>
       <c r="W44" t="n">
-        <v>2862.792571049924</v>
+        <v>3727.61674357598</v>
       </c>
       <c r="X44" t="n">
-        <v>2583.73595822208</v>
+        <v>3315.896744743728</v>
       </c>
       <c r="Y44" t="n">
-        <v>2178.398688176971</v>
+        <v>2910.559474698618</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>624.3793424524537</v>
+        <v>654.3326880375852</v>
       </c>
       <c r="C45" t="n">
-        <v>506.8734389699584</v>
+        <v>536.8267845550899</v>
       </c>
       <c r="D45" t="n">
-        <v>403.0334804852435</v>
+        <v>432.986826070375</v>
       </c>
       <c r="E45" t="n">
-        <v>298.3315467581807</v>
+        <v>328.2848923433122</v>
       </c>
       <c r="F45" t="n">
-        <v>204.6857164410849</v>
+        <v>234.6390620262164</v>
       </c>
       <c r="G45" t="n">
-        <v>110.6319446586889</v>
+        <v>140.5852902438204</v>
       </c>
       <c r="H45" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="I45" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="J45" t="n">
-        <v>57.25585142099849</v>
+        <v>358.9066862857211</v>
       </c>
       <c r="K45" t="n">
-        <v>57.25585142099849</v>
+        <v>715.5536336853625</v>
       </c>
       <c r="L45" t="n">
-        <v>448.8611593317958</v>
+        <v>715.5536336853625</v>
       </c>
       <c r="M45" t="n">
-        <v>1157.402320666652</v>
+        <v>715.5536336853625</v>
       </c>
       <c r="N45" t="n">
-        <v>1865.943482001508</v>
+        <v>715.5536336853625</v>
       </c>
       <c r="O45" t="n">
-        <v>1865.943482001508</v>
+        <v>715.5536336853625</v>
       </c>
       <c r="P45" t="n">
-        <v>1865.943482001508</v>
+        <v>1431.75135072386</v>
       </c>
       <c r="Q45" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="R45" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="S45" t="n">
-        <v>1784.619234562763</v>
+        <v>1814.572580147894</v>
       </c>
       <c r="T45" t="n">
-        <v>1642.739298860441</v>
+        <v>1672.692644445573</v>
       </c>
       <c r="U45" t="n">
-        <v>1457.971102780078</v>
+        <v>1487.924448365209</v>
       </c>
       <c r="V45" t="n">
-        <v>1252.997963919344</v>
+        <v>1282.951309504475</v>
       </c>
       <c r="W45" t="n">
-        <v>1056.476586752561</v>
+        <v>1086.429932337693</v>
       </c>
       <c r="X45" t="n">
-        <v>892.999240519224</v>
+        <v>922.9525861043555</v>
       </c>
       <c r="Y45" t="n">
-        <v>753.3063518725164</v>
+        <v>783.2596974576479</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1521.995829409463</v>
+        <v>431.0435343526535</v>
       </c>
       <c r="C46" t="n">
-        <v>1350.023266288379</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="D46" t="n">
-        <v>1186.70649341515</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="E46" t="n">
-        <v>1020.498287568003</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="F46" t="n">
-        <v>848.6365133425638</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="G46" t="n">
-        <v>682.379543636796</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="H46" t="n">
-        <v>682.379543636796</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="I46" t="n">
-        <v>682.379543636796</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="J46" t="n">
-        <v>739.870871860954</v>
+        <v>144.700525230288</v>
       </c>
       <c r="K46" t="n">
-        <v>966.3984730667912</v>
+        <v>371.2281264361252</v>
       </c>
       <c r="L46" t="n">
-        <v>1321.087794361212</v>
+        <v>725.917447730546</v>
       </c>
       <c r="M46" t="n">
-        <v>1712.273589331463</v>
+        <v>1117.103242700797</v>
       </c>
       <c r="N46" t="n">
-        <v>2089.765100207499</v>
+        <v>1494.594753576833</v>
       </c>
       <c r="O46" t="n">
-        <v>2445.193228887262</v>
+        <v>1850.022882256595</v>
       </c>
       <c r="P46" t="n">
-        <v>2735.792440809163</v>
+        <v>2140.622094178496</v>
       </c>
       <c r="Q46" t="n">
-        <v>2862.792571049924</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="R46" t="n">
-        <v>2862.792571049924</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="S46" t="n">
-        <v>2862.792571049924</v>
+        <v>2170.203835422426</v>
       </c>
       <c r="T46" t="n">
-        <v>2862.792571049924</v>
+        <v>1926.864487648326</v>
       </c>
       <c r="U46" t="n">
-        <v>2737.632334205439</v>
+        <v>1646.68003914863</v>
       </c>
       <c r="V46" t="n">
-        <v>2455.920866813468</v>
+        <v>1364.968571756659</v>
       </c>
       <c r="W46" t="n">
-        <v>2181.068462985982</v>
+        <v>1090.116167929172</v>
       </c>
       <c r="X46" t="n">
-        <v>1938.504566431787</v>
+        <v>847.5522713749772</v>
       </c>
       <c r="Y46" t="n">
-        <v>1712.161798121529</v>
+        <v>621.2095030647192</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>604.0664017234789</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
-        <v>754.010185195104</v>
+        <v>453.322231905261</v>
       </c>
       <c r="M2" t="n">
-        <v>753.1294056619129</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P2" t="n">
-        <v>753.0089771212694</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q2" t="n">
         <v>36.12467460459804</v>
@@ -8052,22 +8054,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M3" t="n">
-        <v>738.7949232748091</v>
+        <v>268.7645418748071</v>
       </c>
       <c r="N3" t="n">
-        <v>171.3411093762767</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O3" t="n">
         <v>23.17188972222222</v>
@@ -8076,10 +8078,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8216,25 +8218,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>751.4627435572904</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>754.010185195104</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>357.9461889675745</v>
+        <v>300.4545145390017</v>
       </c>
       <c r="N5" t="n">
-        <v>752.9777655969272</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>35.03264989479647</v>
@@ -8289,25 +8291,25 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>180.6729970931265</v>
       </c>
       <c r="L6" t="n">
-        <v>738.2132294767107</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>134.940175354243</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>738.8700324847033</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
         <v>21.77084120482866</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M8" t="n">
-        <v>753.1294056619129</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N8" t="n">
-        <v>752.9777655969272</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O8" t="n">
-        <v>753.0891021185053</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P8" t="n">
-        <v>239.3465152703918</v>
+        <v>100.0585094065321</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,22 +8534,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L9" t="n">
-        <v>738.2132294767107</v>
+        <v>529.5908311320803</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>737.0411709760227</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>418.7328068038355</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
@@ -8690,25 +8692,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>754.010185195104</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M11" t="n">
-        <v>724.2123089846407</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>752.9777655969272</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>753.0891021185053</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>60.14614542315464</v>
       </c>
       <c r="R11" t="n">
         <v>35.03264989479647</v>
@@ -8772,19 +8774,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
-        <v>738.7949232748091</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>416.9039452951551</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>738.8700324847033</v>
+        <v>281.4457336203087</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
@@ -8927,19 +8929,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>440.196379322707</v>
       </c>
       <c r="L14" t="n">
-        <v>754.010185195104</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>753.1294056619129</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>752.9777655969272</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>724.1720054412328</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
         <v>37.5753618102313</v>
@@ -8948,7 +8950,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,22 +9005,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>180.6167232527519</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O15" t="n">
-        <v>738.8700324847033</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
@@ -9027,7 +9029,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,25 +9163,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>725.0930885178318</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>753.1294056619129</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
-        <v>752.9777655969272</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>753.0891021185053</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>218.8019602116006</v>
       </c>
       <c r="Q17" t="n">
         <v>36.12467460459804</v>
@@ -9246,22 +9248,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>738.2132294767107</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>664.1960860360148</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9398,16 +9400,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>878.1144544646206</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
@@ -9416,10 +9418,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>753.0089771212694</v>
+        <v>466.3243076206841</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9486,7 +9488,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685299</v>
+        <v>749.7358553685286</v>
       </c>
       <c r="N21" t="n">
         <v>1121.661155963915</v>
@@ -9653,7 +9655,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
@@ -9723,7 +9725,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685286</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N24" t="n">
         <v>1121.661155963915</v>
@@ -9872,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>586.4197136125407</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
@@ -9890,10 +9892,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>466.3243076206841</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
         <v>153.7764225027789</v>
@@ -9960,19 +9962,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O27" t="n">
-        <v>657.8632399032651</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10118,7 +10120,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10127,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>54.56363491934598</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,25 +10193,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574439</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>61.41381912716452</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10355,16 +10357,16 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1019.918210644103</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
         <v>496.8170781441769</v>
@@ -10422,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>152.7047407943309</v>
+        <v>419.377495626537</v>
       </c>
       <c r="M33" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10446,10 +10448,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,16 +10585,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>123.5223236751217</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>304.4845953330639</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10607,7 +10609,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,16 +10822,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>952.6858336296069</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>995.9774475394107</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10844,7 +10846,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10908,19 +10910,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O39" t="n">
-        <v>657.8632399032651</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
@@ -11072,16 +11074,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>891.0724241548241</v>
+        <v>206.5024180439396</v>
       </c>
       <c r="P41" t="n">
-        <v>585.0680802286672</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,31 +11135,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11300,25 +11302,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
-        <v>754.010185195104</v>
+        <v>205.6330017253345</v>
       </c>
       <c r="M44" t="n">
-        <v>753.1294056619129</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>752.9777655969272</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>724.1720054412328</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,28 +11375,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>382.6486756511529</v>
       </c>
       <c r="L45" t="n">
-        <v>418.076003795843</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>738.7949232748091</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>737.0411709760227</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -22544,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>193.8402007600256</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>248.4240576336966</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -22708,16 +22710,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
@@ -22753,16 +22755,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>59.64236734312206</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>123.7474116818786</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>350.4368321418758</v>
       </c>
       <c r="C5" t="n">
         <v>422.6317226868329</v>
@@ -22796,13 +22798,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22835,16 +22837,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>66.09817281389832</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22948,19 +22950,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>59.64236734312311</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
@@ -22999,13 +23001,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>131.0791068915072</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -23018,19 +23020,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>2.453211478260414</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
@@ -23087,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>199.9074905650318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23176,10 +23178,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>68.15019490184636</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
@@ -23188,16 +23190,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>165.7641609568371</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23224,10 +23226,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23267,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,7 +23317,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>55.5218717348813</v>
+        <v>154.3751838084203</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>165.7641609568371</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23467,16 +23469,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>53.32812537571778</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>81.84070923736469</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>80.70894683330306</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>110.098167740203</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>165.7641609568371</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23744,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>131.3367521443644</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23890,19 +23892,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>121.4895780159386</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23938,25 +23940,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>125.8003826660205</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24136,7 +24138,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24175,25 +24177,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>53.32812537571836</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>268.0242302695417</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24370,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>63.52994056050434</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>50.56495090172137</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,22 +24651,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>155.6854428440909</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24847,10 +24849,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>157.3132665360053</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>153.4739695386591</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
@@ -24886,7 +24888,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -25078,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>110.0981677402028</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>67.62133122010796</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>53.32812537571778</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>106.2309441183566</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>115.7088052046617</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25691,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>1.464985920048093</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25792,13 +25794,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
@@ -25834,13 +25836,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>63.52994056050434</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>153.473969538659</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25877,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -25922,13 +25924,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>119.8272812644563</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>131.3367521443644</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26026,16 +26028,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
@@ -26071,13 +26073,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>153.4739695386585</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>514391.8445955568</v>
+        <v>449094.3611566102</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>514391.8445955568</v>
+        <v>449094.3611566101</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>514391.8445955568</v>
+        <v>667702.3453339272</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>514391.844595557</v>
+        <v>667702.3453339271</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>514391.8445955568</v>
+        <v>667702.3453339271</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>514391.8445955568</v>
+        <v>744955.6374766655</v>
       </c>
     </row>
     <row r="8">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>744955.6374766657</v>
+        <v>744955.6374766654</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>744955.6374766657</v>
+        <v>667702.3453339273</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>514391.8445955568</v>
+        <v>667702.3453339271</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>174638.9837055027</v>
+        <v>152470.9723568845</v>
       </c>
       <c r="C2" t="n">
-        <v>174638.9837055027</v>
+        <v>152470.9723568845</v>
       </c>
       <c r="D2" t="n">
-        <v>174638.9837055028</v>
+        <v>226686.7616785727</v>
       </c>
       <c r="E2" t="n">
-        <v>174638.9837055027</v>
+        <v>226686.7616785727</v>
       </c>
       <c r="F2" t="n">
-        <v>174638.9837055027</v>
+        <v>226686.7616785726</v>
       </c>
       <c r="G2" t="n">
-        <v>174638.9837055026</v>
+        <v>252913.6814118513</v>
       </c>
       <c r="H2" t="n">
         <v>252913.6814118513</v>
@@ -26341,19 +26343,19 @@
         <v>252913.6814118513</v>
       </c>
       <c r="L2" t="n">
-        <v>252913.6814118514</v>
+        <v>252913.6814118513</v>
       </c>
       <c r="M2" t="n">
         <v>252913.6814118513</v>
       </c>
       <c r="N2" t="n">
-        <v>252913.6814118514</v>
+        <v>252913.6814118513</v>
       </c>
       <c r="O2" t="n">
-        <v>252913.6814118513</v>
+        <v>226686.7616785726</v>
       </c>
       <c r="P2" t="n">
-        <v>174638.9837055027</v>
+        <v>226686.7616785727</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>239846.908696991</v>
+        <v>186404.7334147372</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>165841.36523708</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26378,22 +26380,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>51711.33053014221</v>
       </c>
       <c r="H3" t="n">
-        <v>151925.6098158127</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>187258.1248649466</v>
+        <v>145533.6699348165</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>135122.0325442417</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10413.07195805953</v>
+        <v>9081.116486988822</v>
       </c>
       <c r="C4" t="n">
-        <v>10413.07195805953</v>
+        <v>9081.116486988822</v>
       </c>
       <c r="D4" t="n">
-        <v>10413.07195805953</v>
+        <v>13540.34041430856</v>
       </c>
       <c r="E4" t="n">
-        <v>10413.07195805953</v>
+        <v>13540.34041430856</v>
       </c>
       <c r="F4" t="n">
-        <v>10413.07195805953</v>
+        <v>13540.34041430856</v>
       </c>
       <c r="G4" t="n">
-        <v>10413.07195805953</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="H4" t="n">
         <v>15116.17365792743</v>
@@ -26439,25 +26441,25 @@
         <v>15116.17365792743</v>
       </c>
       <c r="J4" t="n">
-        <v>15116.17365792744</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="K4" t="n">
         <v>15116.17365792743</v>
       </c>
       <c r="L4" t="n">
-        <v>15116.17365792744</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="M4" t="n">
         <v>15116.17365792743</v>
       </c>
       <c r="N4" t="n">
-        <v>15116.17365792744</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="O4" t="n">
-        <v>15116.17365792743</v>
+        <v>13540.34041430856</v>
       </c>
       <c r="P4" t="n">
-        <v>10413.07195805953</v>
+        <v>13540.34041430856</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77142.04707995884</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="C5" t="n">
-        <v>77142.04707995884</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>77142.04707995884</v>
+        <v>99906.58972465878</v>
       </c>
       <c r="E5" t="n">
-        <v>43514.44707995885</v>
+        <v>66278.98972465878</v>
       </c>
       <c r="F5" t="n">
-        <v>43514.44707995885</v>
+        <v>66278.98972465878</v>
       </c>
       <c r="G5" t="n">
-        <v>43514.44707995885</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842969</v>
+        <v>66278.98972465878</v>
       </c>
       <c r="P5" t="n">
-        <v>43514.44707995885</v>
+        <v>66278.98972465878</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-152763.0440295066</v>
+        <v>-110461.1285822697</v>
       </c>
       <c r="C6" t="n">
-        <v>87083.8646674843</v>
+        <v>75943.60483246759</v>
       </c>
       <c r="D6" t="n">
-        <v>87083.86466748439</v>
+        <v>-52601.53369747463</v>
       </c>
       <c r="E6" t="n">
-        <v>120711.4646674843</v>
+        <v>146867.4315396053</v>
       </c>
       <c r="F6" t="n">
-        <v>120711.4646674843</v>
+        <v>146867.4315396053</v>
       </c>
       <c r="G6" t="n">
-        <v>120711.4646674843</v>
+        <v>108336.1150353519</v>
       </c>
       <c r="H6" t="n">
-        <v>8121.835749681559</v>
+        <v>160047.4455654942</v>
       </c>
       <c r="I6" t="n">
         <v>160047.4455654942</v>
       </c>
       <c r="J6" t="n">
-        <v>-27210.67929945242</v>
+        <v>14513.77563067773</v>
       </c>
       <c r="K6" t="n">
         <v>160047.4455654942</v>
       </c>
       <c r="L6" t="n">
-        <v>160047.4455654942</v>
+        <v>24925.41302125246</v>
       </c>
       <c r="M6" t="n">
         <v>160047.4455654942</v>
       </c>
       <c r="N6" t="n">
-        <v>160047.4455654943</v>
+        <v>160047.4455654942</v>
       </c>
       <c r="O6" t="n">
-        <v>160047.4455654942</v>
+        <v>146867.4315396053</v>
       </c>
       <c r="P6" t="n">
-        <v>120711.4646674843</v>
+        <v>146867.4315396054</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>715.6981427624811</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
-        <v>715.6981427624811</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>715.6981427624811</v>
+        <v>1090.114962576625</v>
       </c>
       <c r="E4" t="n">
-        <v>715.6981427624811</v>
+        <v>1090.114962576625</v>
       </c>
       <c r="F4" t="n">
-        <v>715.6981427624811</v>
+        <v>1090.114962576625</v>
       </c>
       <c r="G4" t="n">
-        <v>715.6981427624811</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="H4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>1278.783917572857</v>
+        <v>1090.114962576625</v>
       </c>
       <c r="P4" t="n">
-        <v>715.6981427624811</v>
+        <v>1090.114962576625</v>
       </c>
     </row>
   </sheetData>
@@ -27009,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>715.6981427624811</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>533.8871494610307</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27024,22 +27026,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>188.6689549962318</v>
       </c>
       <c r="H4" t="n">
-        <v>563.0857748103757</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>715.698142762481</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>533.8871494610307</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27255,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>715.6981427624811</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>533.8871494610307</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>188.6689549962318</v>
       </c>
       <c r="P4" t="n">
-        <v>563.0857748103757</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>568.3018009286695</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
-        <v>715.6981427624811</v>
+        <v>415.0101894726381</v>
       </c>
       <c r="M2" t="n">
-        <v>715.6981427624811</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P2" t="n">
-        <v>715.433615311038</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34772,22 +34774,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M3" t="n">
-        <v>715.6981427624811</v>
+        <v>245.6677613624791</v>
       </c>
       <c r="N3" t="n">
-        <v>149.9980811627351</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34796,10 +34798,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34936,25 +34938,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>715.6981427624811</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>715.6981427624811</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>320.5149260681427</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="N5" t="n">
-        <v>715.6981427624811</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35009,25 +35011,25 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="L6" t="n">
-        <v>715.6981427624811</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>113.5971471407014</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
-        <v>715.6981427624811</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M8" t="n">
-        <v>715.6981427624811</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N8" t="n">
-        <v>715.6981427624811</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O8" t="n">
-        <v>715.6981427624811</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P8" t="n">
-        <v>201.7711534601605</v>
+        <v>62.48314759630081</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L9" t="n">
-        <v>715.6981427624811</v>
+        <v>507.0757444178507</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>715.6981427624811</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>395.5609170816133</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35410,25 +35412,25 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>715.6981427624811</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>686.7810460852089</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>715.6981427624811</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>715.6981427624811</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>24.0214708185566</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35492,19 +35494,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
-        <v>715.6981427624811</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>395.5609170816134</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>715.6981427624811</v>
+        <v>258.2738438980865</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35647,19 +35649,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>404.4317785278977</v>
       </c>
       <c r="L14" t="n">
-        <v>715.6981427624811</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>715.6981427624811</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>715.6981427624811</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>686.7810460852088</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35668,7 +35670,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>157.5199427404239</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O15" t="n">
-        <v>715.6981427624811</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,25 +35883,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>686.7810460852089</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>715.6981427624811</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
-        <v>715.6981427624811</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>715.6981427624811</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>181.2265984013693</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35966,22 +35968,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>715.6981427624811</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>642.4252448311861</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>839.8024120319977</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
@@ -36136,10 +36138,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>715.433615311038</v>
+        <v>428.7489458104528</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36206,7 +36208,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562019</v>
+        <v>726.6390748562006</v>
       </c>
       <c r="N21" t="n">
         <v>1100.318127750374</v>
@@ -36373,7 +36375,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36443,7 +36445,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562006</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N24" t="n">
         <v>1100.318127750374</v>
@@ -36592,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>548.1076711799178</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
@@ -36610,10 +36612,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>428.7489458104528</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>118.7437726079824</v>
@@ -36680,19 +36682,19 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O27" t="n">
-        <v>634.6913501810429</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36838,7 +36840,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36847,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>19.53098502454951</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439022</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37075,16 +37077,16 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>982.4869477446711</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
         <v>460.6924035395789</v>
@@ -37142,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>130.1896540801013</v>
+        <v>396.8624089123075</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>94.10236418953517</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>267.0533324336321</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37327,7 +37329,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>914.373791196984</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>958.5461846399789</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37564,7 +37566,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,19 +37630,19 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O39" t="n">
-        <v>634.6913501810429</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
@@ -37792,16 +37794,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>853.6814647988001</v>
+        <v>169.1114586879155</v>
       </c>
       <c r="P41" t="n">
-        <v>547.4927184184359</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38020,25 +38022,25 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>715.6981427624811</v>
+        <v>167.3209592927116</v>
       </c>
       <c r="M44" t="n">
-        <v>715.6981427624811</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>715.6981427624811</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>686.7810460852088</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>360.2494418178196</v>
       </c>
       <c r="L45" t="n">
-        <v>395.5609170816134</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>715.6981427624811</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>715.6981427624811</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>653331.1429673196</v>
+        <v>651177.9091629854</v>
       </c>
     </row>
     <row r="7">
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>173.2931128199244</v>
+        <v>109.8718911870902</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400.2956717864458</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -822,13 +822,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>49.87597792716608</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>181.2635869532369</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65.21304850673893</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>80.16905136453521</v>
       </c>
       <c r="G5" t="n">
         <v>400.2956717864458</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>407.6027988439302</v>
@@ -1059,13 +1059,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>104.9037564455519</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
@@ -1144,16 +1144,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>418.4197285142333</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>67.84375449721203</v>
       </c>
       <c r="Y8" t="n">
         <v>401.2838973446586</v>
@@ -1293,7 +1293,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>102.1026425880268</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -1381,10 +1381,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>88.98213122956525</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>199.5393369165927</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
@@ -1533,22 +1533,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399249</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>218.7757544134943</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>175.0624134762488</v>
+        <v>206.9369977698583</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
@@ -1770,13 +1770,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>51.585437404294</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
@@ -1846,7 +1846,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868337</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
@@ -2007,22 +2007,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>146.3034971231916</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -2098,7 +2098,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407063</v>
       </c>
       <c r="I20" t="n">
         <v>34.5479025439635</v>
@@ -2244,22 +2244,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.1055716303381</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2481,13 +2481,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>104.9037564455521</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2718,19 +2718,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>84.452814744562</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2955,16 +2955,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>11.12043047005107</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
@@ -3429,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>218.7757544134943</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>58.31517967031836</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3729,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>255.7713603095518</v>
@@ -3802,13 +3802,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>311.7184893693544</v>
       </c>
       <c r="X41" t="n">
-        <v>406.1378129238821</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3903,13 +3903,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>98.15366458399249</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>104.9037564455521</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -4036,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>234.0872394605567</v>
+        <v>234.0872394605576</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1805.062888170846</v>
+        <v>892.584245512081</v>
       </c>
       <c r="C2" t="n">
-        <v>1805.062888170846</v>
+        <v>892.584245512081</v>
       </c>
       <c r="D2" t="n">
-        <v>1381.770267355847</v>
+        <v>892.584245512081</v>
       </c>
       <c r="E2" t="n">
-        <v>1206.726719052893</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="F2" t="n">
         <v>781.6025372422929</v>
@@ -4330,52 +4330,52 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L2" t="n">
-        <v>1006.023847611597</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="M2" t="n">
-        <v>1006.023847611597</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="N2" t="n">
-        <v>1006.023847611597</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O2" t="n">
-        <v>1556.689382596036</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P2" t="n">
-        <v>2107.354917580474</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R2" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T2" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V2" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W2" t="n">
-        <v>2224.911252462377</v>
+        <v>1724.152608635864</v>
       </c>
       <c r="X2" t="n">
-        <v>2224.911252462377</v>
+        <v>1312.432609803611</v>
       </c>
       <c r="Y2" t="n">
-        <v>2224.911252462377</v>
+        <v>1312.432609803611</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C3" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E3" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>563.6534869019529</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G3" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H3" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J3" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K3" t="n">
-        <v>416.2236218818665</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L3" t="n">
-        <v>966.8891568663047</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M3" t="n">
-        <v>1210.100240615159</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N3" t="n">
-        <v>1760.765775599597</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="O3" t="n">
-        <v>1760.765775599597</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P3" t="n">
-        <v>1760.765775599597</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q3" t="n">
-        <v>2224.911252462377</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R3" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S3" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T3" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U3" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V3" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W3" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X3" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y3" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="4">
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>545.9957668907073</v>
+        <v>438.7123380797772</v>
       </c>
       <c r="C4" t="n">
-        <v>374.0232037696233</v>
+        <v>266.7397749586933</v>
       </c>
       <c r="D4" t="n">
-        <v>210.706430896394</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E4" t="n">
-        <v>44.49822504924753</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F4" t="n">
         <v>44.49822504924753</v>
@@ -4512,28 +4512,28 @@
         <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S4" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="T4" t="n">
-        <v>2041.81672018638</v>
+        <v>1934.53329137545</v>
       </c>
       <c r="U4" t="n">
-        <v>1761.632271686684</v>
+        <v>1654.348842875754</v>
       </c>
       <c r="V4" t="n">
-        <v>1479.920804294713</v>
+        <v>1372.637375483783</v>
       </c>
       <c r="W4" t="n">
-        <v>1205.068400467226</v>
+        <v>1097.784971656296</v>
       </c>
       <c r="X4" t="n">
-        <v>962.5045039130309</v>
+        <v>855.2210751021008</v>
       </c>
       <c r="Y4" t="n">
-        <v>736.161735602773</v>
+        <v>628.8783067918429</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>483.7341587163277</v>
+        <v>988.0056192934842</v>
       </c>
       <c r="C5" t="n">
-        <v>483.7341587163277</v>
+        <v>988.0056192934842</v>
       </c>
       <c r="D5" t="n">
-        <v>483.7341587163277</v>
+        <v>564.7129984784845</v>
       </c>
       <c r="E5" t="n">
-        <v>483.7341587163277</v>
+        <v>564.7129984784845</v>
       </c>
       <c r="F5" t="n">
         <v>483.7341587163277</v>
@@ -4573,46 +4573,46 @@
         <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>957.7672188505812</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M5" t="n">
-        <v>1218.160237973755</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N5" t="n">
-        <v>1218.160237973755</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="O5" t="n">
-        <v>1218.160237973755</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P5" t="n">
-        <v>1768.825772958194</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V5" t="n">
-        <v>1763.054543461766</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W5" t="n">
-        <v>1366.663193762113</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X5" t="n">
-        <v>954.9431949298605</v>
+        <v>1813.191253630124</v>
       </c>
       <c r="Y5" t="n">
-        <v>549.6059248847508</v>
+        <v>1407.853983585014</v>
       </c>
     </row>
     <row r="6">
@@ -4649,22 +4649,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>201.1892506764427</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L6" t="n">
-        <v>751.8547856608809</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M6" t="n">
-        <v>751.8547856608809</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N6" t="n">
-        <v>1302.520320645319</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="O6" t="n">
-        <v>1853.185855629757</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P6" t="n">
-        <v>1853.185855629757</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="Q6" t="n">
         <v>1853.185855629757</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>485.7509513926031</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C7" t="n">
-        <v>313.7783882715191</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D7" t="n">
-        <v>150.4616153982898</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E7" t="n">
-        <v>44.49822504924753</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F7" t="n">
         <v>44.49822504924753</v>
@@ -4752,25 +4752,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2224.911252462376</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T7" t="n">
-        <v>1981.571904688275</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U7" t="n">
-        <v>1701.38745618858</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V7" t="n">
-        <v>1419.675988796609</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W7" t="n">
-        <v>1144.823584969122</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X7" t="n">
-        <v>902.2596884149267</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y7" t="n">
-        <v>675.9169201046687</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1786.02567807839</v>
+        <v>2525.607981663617</v>
       </c>
       <c r="C8" t="n">
-        <v>1359.12494809169</v>
+        <v>2098.707251676917</v>
       </c>
       <c r="D8" t="n">
-        <v>935.83232727669</v>
+        <v>1675.414630861917</v>
       </c>
       <c r="E8" t="n">
-        <v>509.8553874245475</v>
+        <v>1249.437691009775</v>
       </c>
       <c r="F8" t="n">
-        <v>87.20919700612998</v>
+        <v>824.3135091991753</v>
       </c>
       <c r="G8" t="n">
-        <v>87.20919700612998</v>
+        <v>419.9744467886239</v>
       </c>
       <c r="H8" t="n">
-        <v>87.20919700612998</v>
+        <v>122.1060682626588</v>
       </c>
       <c r="I8" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J8" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="K8" t="n">
-        <v>87.20919700612998</v>
+        <v>802.7175049816291</v>
       </c>
       <c r="L8" t="n">
-        <v>1016.834244625407</v>
+        <v>1732.342552600906</v>
       </c>
       <c r="M8" t="n">
-        <v>2021.120346044465</v>
+        <v>2675.929512661871</v>
       </c>
       <c r="N8" t="n">
-        <v>2997.371404531166</v>
+        <v>3652.180571148572</v>
       </c>
       <c r="O8" t="n">
-        <v>3842.516054681978</v>
+        <v>3652.180571148572</v>
       </c>
       <c r="P8" t="n">
-        <v>3904.374370802316</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="Q8" t="n">
-        <v>4360.459850306499</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="R8" t="n">
-        <v>4360.459850306499</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="S8" t="n">
-        <v>4256.092556179639</v>
+        <v>4256.09255617964</v>
       </c>
       <c r="T8" t="n">
-        <v>4035.166985224273</v>
+        <v>4035.166985224274</v>
       </c>
       <c r="U8" t="n">
-        <v>3776.812075820685</v>
+        <v>3776.812075820686</v>
       </c>
       <c r="V8" t="n">
-        <v>3419.322660946935</v>
+        <v>3419.322660946936</v>
       </c>
       <c r="W8" t="n">
-        <v>3022.931311247282</v>
+        <v>3419.322660946936</v>
       </c>
       <c r="X8" t="n">
-        <v>2611.211312415029</v>
+        <v>3350.793616000257</v>
       </c>
       <c r="Y8" t="n">
-        <v>2205.87404236992</v>
+        <v>2945.456345955147</v>
       </c>
     </row>
     <row r="9">
@@ -4877,28 +4877,28 @@
         <v>140.5852902438204</v>
       </c>
       <c r="H9" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I9" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J9" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="K9" t="n">
-        <v>677.6941235744696</v>
+        <v>87.20919700613</v>
       </c>
       <c r="L9" t="n">
-        <v>1179.699110548142</v>
+        <v>87.20919700613</v>
       </c>
       <c r="M9" t="n">
-        <v>1179.699110548142</v>
+        <v>1006.415549575168</v>
       </c>
       <c r="N9" t="n">
-        <v>1179.699110548142</v>
+        <v>1006.415549575168</v>
       </c>
       <c r="O9" t="n">
-        <v>1179.699110548142</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="P9" t="n">
         <v>1895.89682758664</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>528.4619233494857</v>
+        <v>431.0435343526535</v>
       </c>
       <c r="C10" t="n">
-        <v>425.3279409373374</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="D10" t="n">
-        <v>425.3279409373374</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="E10" t="n">
-        <v>425.3279409373374</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="F10" t="n">
-        <v>253.4661667118978</v>
+        <v>87.20919700613</v>
       </c>
       <c r="G10" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="H10" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I10" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J10" t="n">
         <v>144.700525230288</v>
@@ -4989,25 +4989,25 @@
         <v>2267.622224419258</v>
       </c>
       <c r="S10" t="n">
-        <v>2267.622224419258</v>
+        <v>2170.203835422426</v>
       </c>
       <c r="T10" t="n">
-        <v>2024.282876645158</v>
+        <v>1926.864487648326</v>
       </c>
       <c r="U10" t="n">
-        <v>1744.098428145462</v>
+        <v>1646.68003914863</v>
       </c>
       <c r="V10" t="n">
-        <v>1462.386960753491</v>
+        <v>1364.968571756659</v>
       </c>
       <c r="W10" t="n">
-        <v>1187.534556926004</v>
+        <v>1090.116167929172</v>
       </c>
       <c r="X10" t="n">
-        <v>944.9706603718092</v>
+        <v>847.5522713749772</v>
       </c>
       <c r="Y10" t="n">
-        <v>718.6278920615513</v>
+        <v>621.2095030647192</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2525.607981663617</v>
+        <v>1786.02567807839</v>
       </c>
       <c r="C11" t="n">
-        <v>2098.707251676917</v>
+        <v>1359.124948091691</v>
       </c>
       <c r="D11" t="n">
-        <v>1675.414630861917</v>
+        <v>935.8323272766909</v>
       </c>
       <c r="E11" t="n">
-        <v>1249.437691009775</v>
+        <v>509.8553874245484</v>
       </c>
       <c r="F11" t="n">
-        <v>824.3135091991753</v>
+        <v>509.8553874245484</v>
       </c>
       <c r="G11" t="n">
         <v>419.9744467886239</v>
@@ -5038,55 +5038,55 @@
         <v>122.1060682626588</v>
       </c>
       <c r="I11" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J11" t="n">
-        <v>87.20919700612998</v>
+        <v>449.8126558230255</v>
       </c>
       <c r="K11" t="n">
-        <v>802.7175049816291</v>
+        <v>1165.320963798525</v>
       </c>
       <c r="L11" t="n">
-        <v>802.7175049816291</v>
+        <v>2094.946011417801</v>
       </c>
       <c r="M11" t="n">
-        <v>1807.003606400687</v>
+        <v>2233.394106611674</v>
       </c>
       <c r="N11" t="n">
-        <v>2783.254664887388</v>
+        <v>2233.394106611674</v>
       </c>
       <c r="O11" t="n">
-        <v>3628.3993150382</v>
+        <v>3078.538756762487</v>
       </c>
       <c r="P11" t="n">
-        <v>4336.678594196128</v>
+        <v>3786.818035920414</v>
       </c>
       <c r="Q11" t="n">
-        <v>4360.459850306499</v>
+        <v>4242.903515424598</v>
       </c>
       <c r="R11" t="n">
-        <v>4360.459850306499</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="S11" t="n">
-        <v>4360.459850306499</v>
+        <v>4256.09255617964</v>
       </c>
       <c r="T11" t="n">
-        <v>4360.459850306499</v>
+        <v>4035.166985224274</v>
       </c>
       <c r="U11" t="n">
-        <v>4360.459850306499</v>
+        <v>3776.812075820686</v>
       </c>
       <c r="V11" t="n">
-        <v>4158.904964532163</v>
+        <v>3419.322660946936</v>
       </c>
       <c r="W11" t="n">
-        <v>3762.51361483251</v>
+        <v>3022.931311247283</v>
       </c>
       <c r="X11" t="n">
-        <v>3350.793616000257</v>
+        <v>2611.21131241503</v>
       </c>
       <c r="Y11" t="n">
-        <v>2945.456345955147</v>
+        <v>2205.874042369921</v>
       </c>
     </row>
     <row r="12">
@@ -5114,25 +5114,25 @@
         <v>140.5852902438204</v>
       </c>
       <c r="H12" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I12" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J12" t="n">
-        <v>87.20919700612998</v>
+        <v>358.9066862857211</v>
       </c>
       <c r="K12" t="n">
-        <v>87.20919700612998</v>
+        <v>949.3916128540607</v>
       </c>
       <c r="L12" t="n">
-        <v>924.0080050890361</v>
+        <v>949.3916128540607</v>
       </c>
       <c r="M12" t="n">
-        <v>924.0080050890361</v>
+        <v>1179.699110548142</v>
       </c>
       <c r="N12" t="n">
-        <v>924.0080050890361</v>
+        <v>1179.699110548142</v>
       </c>
       <c r="O12" t="n">
         <v>1179.699110548142</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1170.390319530367</v>
+        <v>358.3268758686206</v>
       </c>
       <c r="C13" t="n">
-        <v>998.4177564092828</v>
+        <v>186.3543127475366</v>
       </c>
       <c r="D13" t="n">
-        <v>835.1009835360535</v>
+        <v>186.3543127475366</v>
       </c>
       <c r="E13" t="n">
-        <v>668.892777688907</v>
+        <v>186.3543127475366</v>
       </c>
       <c r="F13" t="n">
-        <v>497.0310034634675</v>
+        <v>87.20919700613</v>
       </c>
       <c r="G13" t="n">
-        <v>330.7740337576996</v>
+        <v>87.20919700613</v>
       </c>
       <c r="H13" t="n">
-        <v>186.977765265854</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I13" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J13" t="n">
         <v>144.700525230288</v>
@@ -5223,28 +5223,28 @@
         <v>2267.622224419258</v>
       </c>
       <c r="R13" t="n">
-        <v>2220.583611106431</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="S13" t="n">
-        <v>2050.448563625566</v>
+        <v>2097.487176938393</v>
       </c>
       <c r="T13" t="n">
-        <v>2050.448563625566</v>
+        <v>1854.147829164293</v>
       </c>
       <c r="U13" t="n">
-        <v>2050.448563625566</v>
+        <v>1573.963380664597</v>
       </c>
       <c r="V13" t="n">
-        <v>2050.448563625566</v>
+        <v>1292.251913272626</v>
       </c>
       <c r="W13" t="n">
-        <v>1829.462953106885</v>
+        <v>1017.399509445139</v>
       </c>
       <c r="X13" t="n">
-        <v>1586.89905655269</v>
+        <v>774.8356128909442</v>
       </c>
       <c r="Y13" t="n">
-        <v>1360.556288242432</v>
+        <v>548.4928445806862</v>
       </c>
     </row>
     <row r="14">
@@ -5269,49 +5269,49 @@
         <v>491.5482594166814</v>
       </c>
       <c r="G14" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="H14" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I14" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J14" t="n">
-        <v>87.20919700612998</v>
+        <v>449.8126558230255</v>
       </c>
       <c r="K14" t="n">
-        <v>487.5966577487487</v>
+        <v>1165.320963798525</v>
       </c>
       <c r="L14" t="n">
-        <v>1417.221705368025</v>
+        <v>2094.946011417801</v>
       </c>
       <c r="M14" t="n">
-        <v>2421.507806787084</v>
+        <v>2350.950441493577</v>
       </c>
       <c r="N14" t="n">
-        <v>3397.758865273785</v>
+        <v>2350.950441493577</v>
       </c>
       <c r="O14" t="n">
-        <v>4242.903515424597</v>
+        <v>3196.095091644389</v>
       </c>
       <c r="P14" t="n">
-        <v>4242.903515424597</v>
+        <v>3904.374370802317</v>
       </c>
       <c r="Q14" t="n">
-        <v>4242.903515424597</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="R14" t="n">
-        <v>4360.459850306499</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="S14" t="n">
-        <v>4360.459850306499</v>
+        <v>4256.09255617964</v>
       </c>
       <c r="T14" t="n">
-        <v>4360.459850306499</v>
+        <v>4035.166985224274</v>
       </c>
       <c r="U14" t="n">
-        <v>4183.629129623419</v>
+        <v>3826.139714749669</v>
       </c>
       <c r="V14" t="n">
         <v>3826.139714749669</v>
@@ -5351,28 +5351,28 @@
         <v>140.5852902438204</v>
       </c>
       <c r="H15" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I15" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J15" t="n">
-        <v>87.20919700612998</v>
+        <v>123.7125725720966</v>
       </c>
       <c r="K15" t="n">
-        <v>87.20919700612998</v>
+        <v>123.7125725720966</v>
       </c>
       <c r="L15" t="n">
-        <v>87.20919700612998</v>
+        <v>123.7125725720966</v>
       </c>
       <c r="M15" t="n">
-        <v>87.20919700612998</v>
+        <v>1179.699110548142</v>
       </c>
       <c r="N15" t="n">
-        <v>1006.415549575168</v>
+        <v>1179.699110548142</v>
       </c>
       <c r="O15" t="n">
-        <v>1895.89682758664</v>
+        <v>1179.699110548142</v>
       </c>
       <c r="P15" t="n">
         <v>1895.89682758664</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>311.2882625557938</v>
+        <v>431.0435343526535</v>
       </c>
       <c r="C16" t="n">
-        <v>139.3156994347098</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="D16" t="n">
-        <v>87.20919700612998</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="E16" t="n">
-        <v>87.20919700612998</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="F16" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="G16" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="H16" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I16" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J16" t="n">
         <v>144.700525230288</v>
@@ -5460,28 +5460,28 @@
         <v>2267.622224419258</v>
       </c>
       <c r="R16" t="n">
-        <v>2220.583611106431</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="S16" t="n">
-        <v>2050.448563625566</v>
+        <v>2170.203835422426</v>
       </c>
       <c r="T16" t="n">
-        <v>1807.109215851466</v>
+        <v>1926.864487648326</v>
       </c>
       <c r="U16" t="n">
-        <v>1526.92476735177</v>
+        <v>1646.68003914863</v>
       </c>
       <c r="V16" t="n">
-        <v>1245.213299959799</v>
+        <v>1364.968571756659</v>
       </c>
       <c r="W16" t="n">
-        <v>970.3608961323123</v>
+        <v>1090.116167929172</v>
       </c>
       <c r="X16" t="n">
-        <v>727.7969995781174</v>
+        <v>847.5522713749772</v>
       </c>
       <c r="Y16" t="n">
-        <v>501.4542312678594</v>
+        <v>621.2095030647192</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
         <v>2113.800768076616</v>
@@ -5506,7 +5506,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
         <v>137.1995846623573</v>
@@ -5515,7 +5515,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
         <v>1180.414480198223</v>
@@ -5524,43 +5524,43 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N17" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5603,19 +5603,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2235.67712750613</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T19" t="n">
-        <v>1992.33777973203</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>1992.33777973203</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>1992.33777973203</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H20" t="n">
         <v>137.1995846623573</v>
@@ -5752,52 +5752,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4997.579335409524</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3873.571530742372</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C21" t="n">
-        <v>3756.065627259877</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D21" t="n">
-        <v>3652.225668775162</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E21" t="n">
-        <v>3547.5237350481</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F21" t="n">
-        <v>3453.877904731004</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>3359.824132948608</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H21" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>4025.820723818556</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N21" t="n">
-        <v>5115.135670291426</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O21" t="n">
-        <v>5115.135670291426</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P21" t="n">
-        <v>5115.135670291426</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q21" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R21" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S21" t="n">
-        <v>5033.811422852681</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T21" t="n">
-        <v>4891.931487150359</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U21" t="n">
-        <v>4707.163291069996</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V21" t="n">
-        <v>4502.190152209263</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W21" t="n">
-        <v>4305.66877504248</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X21" t="n">
-        <v>4142.191428809143</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y21" t="n">
-        <v>4002.498540162435</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4017.903765402535</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>3845.931202281451</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>3682.614429408221</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>3516.406223561075</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>3344.544449335635</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>3178.287479629867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>3034.491211138022</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>4951.828802806541</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>4951.828802806541</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>4951.828802806541</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>4951.828802806541</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>4676.976398979054</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>4434.412502424859</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>4208.069734114601</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5977,49 +5977,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6065,31 +6065,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>437.5920494001418</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>265.6194862790578</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
         <v>102.3027134058285</v>
@@ -6147,10 +6147,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
         <v>741.0109641302445</v>
@@ -6174,25 +6174,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2176.752350469914</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>1933.413002695814</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>1653.228554196118</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>1371.517086804147</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>1096.66468297666</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>854.1007864224655</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>627.7580181122075</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6214,49 +6214,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P26" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6302,31 +6302,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1085.715267670341</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>913.7427045492574</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>750.4259316760281</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>584.2177258288816</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
         <v>102.3027134058285</v>
@@ -6384,10 +6384,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6411,25 +6411,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>1869.241345563992</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>1587.529878172021</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>1587.529878172021</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>1502.224004692665</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>1275.881236382407</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6451,49 +6451,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6539,31 +6539,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M30" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N30" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O30" t="n">
-        <v>730.647150085061</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P30" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3619.314716995754</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>3447.34215387467</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>3284.025381001441</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>3117.817175154294</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>2945.955400928854</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>5115.135670291426</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>5115.135670291426</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>4834.951221791731</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>4553.239754399759</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>4278.387350572272</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>4035.823454018077</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>3809.480685707819</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6688,49 +6688,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L32" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M32" t="n">
-        <v>2110.0395278175</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N32" t="n">
-        <v>2988.069926596601</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O32" t="n">
-        <v>3833.214576747413</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P32" t="n">
-        <v>4541.493855905341</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3873.571530742372</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C33" t="n">
-        <v>3756.065627259877</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D33" t="n">
-        <v>3652.225668775162</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E33" t="n">
-        <v>3547.5237350481</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F33" t="n">
-        <v>3453.877904731004</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G33" t="n">
-        <v>3359.824132948608</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H33" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>3313.89468267283</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>3585.592171952421</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>4176.07709852076</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>4568.970883343944</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M33" t="n">
-        <v>4568.970883343944</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N33" t="n">
-        <v>4568.970883343944</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O33" t="n">
-        <v>4568.970883343944</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P33" t="n">
-        <v>4568.970883343944</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>5033.116360206724</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S33" t="n">
-        <v>5033.811422852681</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T33" t="n">
-        <v>4891.931487150359</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U33" t="n">
-        <v>4707.163291069996</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V33" t="n">
-        <v>4502.190152209263</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W33" t="n">
-        <v>4305.66877504248</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X33" t="n">
-        <v>4142.191428809143</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y33" t="n">
-        <v>4002.498540162435</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3278.556980224821</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>3106.584417103737</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>3106.584417103737</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>3106.584417103737</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>5017.717281294594</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>4774.377933520494</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>4494.193485020798</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>4212.482017628827</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>3937.62961380134</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>3695.065717247145</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>3468.722948936887</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6925,49 +6925,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2011.8188681099</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N35" t="n">
-        <v>2988.069926596601</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O35" t="n">
-        <v>3833.214576747413</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905341</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7022,16 +7022,16 @@
         <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>971.931772215671</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M36" t="n">
-        <v>971.931772215671</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N36" t="n">
-        <v>971.931772215671</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O36" t="n">
-        <v>971.931772215671</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P36" t="n">
         <v>1364.825557038856</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7119,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T37" t="n">
-        <v>2065.542080025265</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U37" t="n">
-        <v>2065.542080025265</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V37" t="n">
-        <v>2065.542080025265</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W37" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X37" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y37" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7162,49 +7162,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K38" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L38" t="n">
-        <v>1180.414480198223</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M38" t="n">
-        <v>2129.375202991802</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N38" t="n">
-        <v>3105.626261478503</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>3950.770911629315</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>4659.050190787243</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7250,31 +7250,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M39" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>742.8905159778161</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>742.8905159778161</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>742.8905159778161</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7356,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T40" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>742.8905159778161</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7402,58 +7402,58 @@
         <v>491.5482594166814</v>
       </c>
       <c r="G41" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="H41" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I41" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J41" t="n">
-        <v>449.8126558230255</v>
+        <v>87.20919700613</v>
       </c>
       <c r="K41" t="n">
-        <v>1165.320963798525</v>
+        <v>802.7175049816291</v>
       </c>
       <c r="L41" t="n">
-        <v>2094.946011417801</v>
+        <v>1732.342552600906</v>
       </c>
       <c r="M41" t="n">
-        <v>3099.232112836859</v>
+        <v>2539.064141668987</v>
       </c>
       <c r="N41" t="n">
-        <v>4075.48317132356</v>
+        <v>3515.315200155688</v>
       </c>
       <c r="O41" t="n">
-        <v>4242.903515424597</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="P41" t="n">
-        <v>4242.903515424597</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="Q41" t="n">
-        <v>4242.903515424597</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="R41" t="n">
-        <v>4360.459850306499</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="S41" t="n">
-        <v>4256.092556179639</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="T41" t="n">
-        <v>4035.166985224273</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="U41" t="n">
-        <v>3776.812075820685</v>
+        <v>4102.104940902912</v>
       </c>
       <c r="V41" t="n">
-        <v>3419.322660946935</v>
+        <v>3744.615526029162</v>
       </c>
       <c r="W41" t="n">
-        <v>3022.931311247282</v>
+        <v>3429.748365050016</v>
       </c>
       <c r="X41" t="n">
-        <v>2612.691096172653</v>
+        <v>3018.028366217763</v>
       </c>
       <c r="Y41" t="n">
         <v>2612.691096172653</v>
@@ -7484,34 +7484,34 @@
         <v>140.5852902438204</v>
       </c>
       <c r="H42" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I42" t="n">
-        <v>94.65583996804182</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J42" t="n">
-        <v>366.3533292476329</v>
+        <v>87.20919700613</v>
       </c>
       <c r="K42" t="n">
-        <v>956.8382558159725</v>
+        <v>87.20919700613</v>
       </c>
       <c r="L42" t="n">
-        <v>956.8382558159725</v>
+        <v>87.20919700613</v>
       </c>
       <c r="M42" t="n">
-        <v>956.8382558159725</v>
+        <v>87.20919700613</v>
       </c>
       <c r="N42" t="n">
-        <v>956.8382558159725</v>
+        <v>924.3962394904649</v>
       </c>
       <c r="O42" t="n">
-        <v>956.8382558159725</v>
+        <v>1813.877517501937</v>
       </c>
       <c r="P42" t="n">
-        <v>1431.75135072386</v>
+        <v>1813.877517501937</v>
       </c>
       <c r="Q42" t="n">
-        <v>1895.89682758664</v>
+        <v>1813.877517501937</v>
       </c>
       <c r="R42" t="n">
         <v>1895.89682758664</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>422.4985330004433</v>
+        <v>358.3268758686206</v>
       </c>
       <c r="C43" t="n">
-        <v>250.5259698793593</v>
+        <v>186.3543127475366</v>
       </c>
       <c r="D43" t="n">
-        <v>87.20919700612998</v>
+        <v>186.3543127475366</v>
       </c>
       <c r="E43" t="n">
-        <v>87.20919700612998</v>
+        <v>186.3543127475366</v>
       </c>
       <c r="F43" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="G43" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="H43" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I43" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J43" t="n">
         <v>144.700525230288</v>
@@ -7596,25 +7596,25 @@
         <v>2267.622224419258</v>
       </c>
       <c r="S43" t="n">
-        <v>2161.658834070216</v>
+        <v>2097.487176938393</v>
       </c>
       <c r="T43" t="n">
-        <v>1918.319486296116</v>
+        <v>1854.147829164293</v>
       </c>
       <c r="U43" t="n">
-        <v>1638.13503779642</v>
+        <v>1573.963380664597</v>
       </c>
       <c r="V43" t="n">
-        <v>1356.423570404449</v>
+        <v>1292.251913272626</v>
       </c>
       <c r="W43" t="n">
-        <v>1081.571166576962</v>
+        <v>1017.399509445139</v>
       </c>
       <c r="X43" t="n">
-        <v>839.0072700227669</v>
+        <v>774.8356128909442</v>
       </c>
       <c r="Y43" t="n">
-        <v>612.6645017125089</v>
+        <v>548.4928445806862</v>
       </c>
     </row>
     <row r="44">
@@ -7639,49 +7639,49 @@
         <v>789.4166379426465</v>
       </c>
       <c r="G44" t="n">
-        <v>385.0775755320951</v>
+        <v>385.0775755320952</v>
       </c>
       <c r="H44" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I44" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J44" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="K44" t="n">
-        <v>87.20919700612998</v>
+        <v>802.7175049816291</v>
       </c>
       <c r="L44" t="n">
-        <v>252.8569467059144</v>
+        <v>1732.342552600906</v>
       </c>
       <c r="M44" t="n">
-        <v>1257.143048124973</v>
+        <v>1732.342552600906</v>
       </c>
       <c r="N44" t="n">
-        <v>2233.394106611674</v>
+        <v>2708.593611087606</v>
       </c>
       <c r="O44" t="n">
-        <v>3078.538756762486</v>
+        <v>3553.738261238419</v>
       </c>
       <c r="P44" t="n">
-        <v>3786.818035920413</v>
+        <v>4262.017540396346</v>
       </c>
       <c r="Q44" t="n">
-        <v>4242.903515424597</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="R44" t="n">
-        <v>4360.459850306499</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="S44" t="n">
-        <v>4360.459850306499</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="T44" t="n">
-        <v>4360.459850306499</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="U44" t="n">
-        <v>4360.459850306499</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="V44" t="n">
         <v>4124.008093275634</v>
@@ -7721,31 +7721,31 @@
         <v>140.5852902438204</v>
       </c>
       <c r="H45" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I45" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J45" t="n">
-        <v>358.9066862857211</v>
+        <v>87.20919700613</v>
       </c>
       <c r="K45" t="n">
-        <v>715.5536336853625</v>
+        <v>87.20919700613</v>
       </c>
       <c r="L45" t="n">
-        <v>715.5536336853625</v>
+        <v>87.20919700613</v>
       </c>
       <c r="M45" t="n">
-        <v>715.5536336853625</v>
+        <v>87.20919700613</v>
       </c>
       <c r="N45" t="n">
-        <v>715.5536336853625</v>
+        <v>1006.415549575168</v>
       </c>
       <c r="O45" t="n">
-        <v>715.5536336853625</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="P45" t="n">
-        <v>1431.75135072386</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="Q45" t="n">
         <v>1895.89682758664</v>
@@ -7794,16 +7794,16 @@
         <v>259.0709712315696</v>
       </c>
       <c r="F46" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="G46" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="H46" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I46" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J46" t="n">
         <v>144.700525230288</v>
@@ -7978,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
         <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
-        <v>453.322231905261</v>
+        <v>301.3352940721928</v>
       </c>
       <c r="M2" t="n">
         <v>37.43126289943181</v>
@@ -7993,16 +7993,16 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
         <v>593.8031749258255</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,28 +8060,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L3" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>268.7645418748071</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>185.9918631203545</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q3" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8221,25 +8221,25 @@
         <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>300.4545145390017</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>86.02369229001789</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,25 +8297,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>180.6729970931265</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
         <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>181.0208015487716</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8455,25 +8455,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L8" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M8" t="n">
-        <v>1051.861668373228</v>
+        <v>990.5494043751546</v>
       </c>
       <c r="N8" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O8" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>100.0585094065321</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q8" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
         <v>35.03264989479647</v>
@@ -8534,22 +8534,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>529.5908311320803</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>951.5880457335786</v>
       </c>
       <c r="N9" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P9" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
@@ -8689,19 +8689,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>177.2778237013238</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
@@ -8710,10 +8710,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>60.14614542315464</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,22 +8768,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>255.7306165669554</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>281.4457336203087</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
         <v>745.2028786174529</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>440.196379322707</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>296.021596309306</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>57.48321086461277</v>
       </c>
       <c r="K15" t="n">
         <v>22.39923383333334</v>
@@ -9014,16 +9014,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N15" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
@@ -9172,22 +9172,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>218.8019602116006</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9251,22 +9251,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>575.0154519389184</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9409,19 +9409,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>466.3243076206841</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9488,19 +9488,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685286</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,22 +9646,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9737,10 +9737,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9883,7 +9883,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>517.6546514635598</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9892,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>466.3243076206841</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,34 +9950,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10123,19 +10123,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>370.4410136063929</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
         <v>618.848654609434</v>
@@ -10205,16 +10205,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>61.41381912716452</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q30" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10357,10 +10357,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>37.43126289943181</v>
+        <v>883.9207714806259</v>
       </c>
       <c r="N32" t="n">
-        <v>924.1790155406089</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
@@ -10369,10 +10369,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10433,7 +10433,7 @@
         <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>419.377495626537</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
         <v>23.09678051232798</v>
@@ -10445,7 +10445,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q33" t="n">
         <v>491.5808533018869</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10594,7 +10594,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>304.4845953330639</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10603,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M36" t="n">
         <v>23.09678051232798</v>
@@ -10682,7 +10682,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>418.6332501171365</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
         <v>491.5808533018869</v>
@@ -10822,16 +10822,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>995.9774475394107</v>
+        <v>304.4845953330648</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10846,7 +10846,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
@@ -11068,13 +11068,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>852.3015548873925</v>
       </c>
       <c r="N41" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>206.5024180439396</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
         <v>37.5753618102313</v>
@@ -11083,7 +11083,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
@@ -11150,19 +11150,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>866.9865054704456</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P42" t="n">
-        <v>501.4810380814832</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,13 +11299,13 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>205.6330017253345</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
         <v>1023.391803124043</v>
@@ -11317,10 +11317,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>135.5613512815214</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>382.6486756511529</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
@@ -11387,16 +11387,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>21.34302821354166</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -22552,13 +22552,13 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>248.4240576336966</v>
+        <v>311.8452792665308</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22597,7 +22597,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
@@ -22609,10 +22609,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>401.2838973446586</v>
@@ -22710,13 +22710,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>111.8076272173309</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
@@ -22752,13 +22752,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>59.64236734312206</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22783,19 +22783,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>350.4368321418758</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>340.7038886279585</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -22834,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -22843,10 +22843,10 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22947,13 +22947,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>59.64236734312311</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
@@ -22992,7 +22992,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23032,16 +23032,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>2.453211478260414</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23083,10 +23083,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>339.7590443467182</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23181,7 +23181,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>68.15019490184636</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
@@ -23193,7 +23193,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
@@ -23229,7 +23229,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23269,10 +23269,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>311.3135405568806</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>154.3751838084203</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>71.98949189919269</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>53.32812537571778</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>80.70894683330306</v>
+        <v>48.8343625396935</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>110.098167740203</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>125.8003826660205</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>53.32812537571836</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
@@ -24414,7 +24414,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>63.52994056050434</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24651,22 +24651,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>155.6854428440909</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,16 +24843,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>153.4739695386591</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
@@ -24888,10 +24888,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>53.32812537571778</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>106.2309441183566</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25690,13 +25690,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>80.70894683330221</v>
       </c>
       <c r="X41" t="n">
-        <v>1.464985920048093</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>71.98949189919269</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
@@ -25836,7 +25836,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>63.52994056050434</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25924,7 +25924,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>119.8272812644563</v>
+        <v>119.8272812644554</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>667702.3453339271</v>
+        <v>667702.3453339273</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>667702.3453339271</v>
+        <v>667702.3453339272</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>744955.6374766657</v>
+        <v>744955.6374766655</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>744955.6374766657</v>
+        <v>744955.6374766655</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>744955.6374766654</v>
+        <v>744955.6374766655</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>667702.3453339273</v>
+        <v>667702.3453339272</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>667702.3453339271</v>
+        <v>667702.3453339272</v>
       </c>
     </row>
   </sheetData>
@@ -26325,13 +26325,13 @@
         <v>226686.7616785727</v>
       </c>
       <c r="F2" t="n">
-        <v>226686.7616785726</v>
+        <v>226686.7616785727</v>
       </c>
       <c r="G2" t="n">
-        <v>252913.6814118513</v>
+        <v>252913.6814118514</v>
       </c>
       <c r="H2" t="n">
-        <v>252913.6814118513</v>
+        <v>252913.6814118514</v>
       </c>
       <c r="I2" t="n">
         <v>252913.6814118513</v>
@@ -26352,7 +26352,7 @@
         <v>252913.6814118513</v>
       </c>
       <c r="O2" t="n">
-        <v>226686.7616785726</v>
+        <v>226686.7616785727</v>
       </c>
       <c r="P2" t="n">
         <v>226686.7616785727</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9081.116486988822</v>
+        <v>9081.116486988823</v>
       </c>
       <c r="C4" t="n">
-        <v>9081.116486988822</v>
+        <v>9081.116486988823</v>
       </c>
       <c r="D4" t="n">
         <v>13540.34041430856</v>
@@ -26432,34 +26432,34 @@
         <v>13540.34041430856</v>
       </c>
       <c r="G4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="H4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="I4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="J4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="K4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="L4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="M4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="N4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="O4" t="n">
         <v>13540.34041430856</v>
       </c>
       <c r="P4" t="n">
-        <v>13540.34041430856</v>
+        <v>13540.34041430857</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>99906.58972465878</v>
       </c>
       <c r="E5" t="n">
-        <v>66278.98972465878</v>
+        <v>66278.98972465879</v>
       </c>
       <c r="F5" t="n">
-        <v>66278.98972465878</v>
+        <v>66278.98972465879</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>66278.98972465878</v>
+        <v>66278.98972465879</v>
       </c>
       <c r="P5" t="n">
-        <v>66278.98972465878</v>
+        <v>66278.98972465879</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-110461.1285822697</v>
+        <v>-111070.1742947593</v>
       </c>
       <c r="C6" t="n">
-        <v>75943.60483246759</v>
+        <v>75334.55911997793</v>
       </c>
       <c r="D6" t="n">
-        <v>-52601.53369747463</v>
+        <v>-52798.2694692883</v>
       </c>
       <c r="E6" t="n">
-        <v>146867.4315396053</v>
+        <v>146670.6957677918</v>
       </c>
       <c r="F6" t="n">
-        <v>146867.4315396053</v>
+        <v>146670.6957677918</v>
       </c>
       <c r="G6" t="n">
-        <v>108336.1150353519</v>
+        <v>108285.0843731678</v>
       </c>
       <c r="H6" t="n">
-        <v>160047.4455654942</v>
+        <v>159996.41490331</v>
       </c>
       <c r="I6" t="n">
-        <v>160047.4455654942</v>
+        <v>159996.4149033099</v>
       </c>
       <c r="J6" t="n">
-        <v>14513.77563067773</v>
+        <v>14462.7449684934</v>
       </c>
       <c r="K6" t="n">
-        <v>160047.4455654942</v>
+        <v>159996.4149033099</v>
       </c>
       <c r="L6" t="n">
-        <v>24925.41302125246</v>
+        <v>24874.38235906822</v>
       </c>
       <c r="M6" t="n">
-        <v>160047.4455654942</v>
+        <v>159996.4149033099</v>
       </c>
       <c r="N6" t="n">
-        <v>160047.4455654942</v>
+        <v>159996.4149033098</v>
       </c>
       <c r="O6" t="n">
-        <v>146867.4315396053</v>
+        <v>146670.6957677917</v>
       </c>
       <c r="P6" t="n">
-        <v>146867.4315396054</v>
+        <v>146670.6957677917</v>
       </c>
     </row>
   </sheetData>
@@ -27017,7 +27017,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>533.8871494610307</v>
+        <v>533.8871494610308</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27041,7 +27041,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>533.8871494610307</v>
+        <v>533.8871494610306</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27263,7 +27263,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>533.8871494610307</v>
+        <v>533.8871494610308</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -34698,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
-        <v>415.0101894726381</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34713,16 +34713,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,28 +34780,28 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>162.8199733981322</v>
+      </c>
+      <c r="P3" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="M3" t="n">
-        <v>245.6677613624791</v>
-      </c>
-      <c r="N3" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34941,25 +34941,25 @@
         <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>263.0232516395698</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>158.2737632597931</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,25 +35175,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L8" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M8" t="n">
-        <v>1014.430405473796</v>
+        <v>953.1181414757228</v>
       </c>
       <c r="N8" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O8" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>62.48314759630081</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q8" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>507.0757444178507</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P9" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>139.846560801892</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
@@ -35430,10 +35430,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>24.0214708185566</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>232.6338360546274</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>258.2738438980865</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>723.4320374126243</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>404.4317785278977</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>258.5903334098742</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>36.87209653127943</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35734,16 +35734,16 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N15" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35892,22 +35892,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>181.2265984013693</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,22 +35971,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36129,19 +36129,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>428.7489458104528</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36208,19 +36208,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562006</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,22 +36366,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36457,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36603,7 +36603,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>480.2233885641281</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36612,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>428.7489458104528</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36843,19 +36843,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
-        <v>986.1121802895968</v>
+        <v>333.1613907719469</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
         <v>596.4494207761006</v>
@@ -36925,16 +36925,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>38.24192940494229</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q30" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37077,10 +37077,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>846.4895085811942</v>
       </c>
       <c r="N32" t="n">
-        <v>886.8993927061629</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
@@ -37089,10 +37089,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,7 +37153,7 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>396.8624089123075</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37165,7 +37165,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q33" t="n">
         <v>468.8338150129084</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37314,7 +37314,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>267.0533324336321</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37323,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,7 +37390,7 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37402,7 +37402,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>396.8624089123078</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>468.8338150129084</v>
@@ -37542,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>958.5461846399789</v>
+        <v>267.053332433633</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37566,7 +37566,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
@@ -37788,13 +37788,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>814.8702919879607</v>
       </c>
       <c r="N41" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>169.1114586879155</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37870,19 +37870,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>845.643477256904</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P42" t="n">
-        <v>479.7101968766545</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>167.3209592927116</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>986.1121802895968</v>
@@ -38037,10 +38037,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>99.43667667692334</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>360.2494418178196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38107,16 +38107,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
